--- a/500all/speech_level/speeches_CHRG-114hhrg97151.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97151.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="427">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,18 +52,12 @@
     <t>400175</t>
   </si>
   <si>
-    <t>Jeb Hensarling</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Hensarling. The Financial Services Committee will come to order. Without objection, the Chair is authorized to declare a recess of the committee at any time.    Today's hearing is entitled, ``The Dodd-Frank Act Five Years Later: Are We More Stable?''    Before proceeding, I wish to yield to the gentleman from Indiana for a very special introduction. The gentleman is recognized.</t>
   </si>
   <si>
     <t>412540</t>
   </si>
   <si>
-    <t>Luke Messer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Messer. Thank you, Mr. Chairman. This is unanticipated, but I would like everybody here to meet my son Hudson Messer--stand up, Hudson--who is joining us today. It is his first time at a Financial Services Committee hearing. Thank you.    [applause]</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
     <t>412488</t>
   </si>
   <si>
-    <t>Sean P. Duffy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duffy. Thank you, Mr. Chairman. When Dodd-Frank was enacted 5 years ago this month, Senator Elizabeth Warren and President Obama promised Americans that this law would lift the economy, that their hard-earned money would be safer, that markets would be more stable and that no one institution would threaten the safety and soundness of the global financial system.    As we have seen this law implemented, it has left much to be desired. In large part, the 2008 financial crisis was a result of Federal financial regulators failing to do their job, and their inability to anticipate the looming issues in the subprime mortgage market.    Dodd-Frank rewarded incompetency with more responsibility. The law has created new areas of risk concentration, enshrined too-big-to-fail institutions, made it more difficult for small banks to compete, and done damage to the economy that is still too difficult to quantify.    The law of unintended consequences has never been more apparent than when we look at Dodd-Frank. The pursuit of financial stability has come at a cost. While the goal may be worthy, we must look at the collateral damage along the way and ask ourselves if we are going down the right path.    Compliance burdens are crushing small institutions. And though banks may be better capitalized, we are now seeing negative market impacts stemming from these new regulations.    The FSOC and Treasury Secretary Lew don't really want to admit that Dodd-Frank may be at the center of illiquidity that was seen in the bond market. With banks having to hold on to more capital and pulling out of market-making activities, these markets are left withering in the wake of Dodd-Frank and other international regulations.    Another product of Dodd-Frank is the Consumer Financial Protection Bureau, the CFPB, which was tasked with protecting consumers of financial products and services from discrimination. Ironically, it has the worst track record of all Federal financial agencies of EEO complaints, proving the agency is inept at best, or negligent at worst, at protecting its own employees from discrimination and retaliation.    Further, sources of small dollar credit products that millions of Americans rely upon are now in the crosshairs of the Bureau. The government-knows-best mentality, the nanny-state mentality, has gone too far. Americans are capable of choosing products and making decisions that they know are in their best financial interests.    The CFPB is eliminating consumer freedom and imposing political agendas that I just don't think work, Mr. Chairman. This is the Gruber mentality, along with--well, I will go there later. I will yield back.</t>
   </si>
   <si>
@@ -94,36 +85,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Atkins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Atkins. Thank you, Mr. Chairman. Good morning, Chairman Hensarling, Ranking Member Waters, and members of the committee, and thank you very much for inviting me to appear at the hearing today.    Given my background, I am going to focus my remarks on the impact of Dodd-Frank on the U.S. capital markets. I think the single largest problem of the Act is Title I, titled ``Financial Stability.''    The conceit of the authors of Dodd-Frank is that if you get enough smart people in a room with enough data, they can bring stability to the marketplace. But just as human beings cannot be counted on to be predictable and stable, those of us who spend a lifetime engaged with the capital markets know that they also are not always stable because human beings with other foibles make up markets.    Ultimately, though, the freedom of individuals to make their own decisions is not a curse, but a benefit.    A little over a year ago, I testified before this committee on the FSOC's embarking on a misguided effort to apply bank prudential regulation to the capital markets by designating asset managers as systemically important financial institutions, or SIFIs.    After much pushback, including by many of you on this committee from both sides of the aisle, both the FSOC and the International Organization of Securities Commissions now indicate that they are moving away from designating asset managers as SIFIs. But that decision is not carved in stone.    Take the Financial Stability Board, which seems not to have changed its course to designate funds and asset managers as global SIFIs, even though the only funds and managers that meet their materiality threshold are American. That raises serious competitive implications for the United States just as the European Union embarks on an initiative to encourage Pan-European capital markets.    In short, the story of attempted prudentialization of capital markets is not going away. I fear that the U.S. capital markets, which have been the driver of economic growth and job creation in this country for decades, will be the collateral damage in the elusive quest for, as I say, stability ``uber alles.''    Another Dodd-Frank provision that is emblematic of a flawed legislative process is the Volcker Rule. Despite not being included in either the House or the Senate bill, and without any substantive hearing to consider the specific language of the Rule, potential effects or unintended consequences of the provision, the Volcker Rule became law.    Basically, the Volcker Rule is aimed at banning proprietary trading in commercial banks. Because it is easier to blame Wall Street in excessive risk taking for the financial crisis than the Federal Government's own housing policies, many have trumpeted the Volcker Rule as the best reform of Dodd-Frank.    But even former Chairman Volcker himself has acknowledged that, ``proprietary trading in commercial banks was not central to the crisis.'' Yet, the statute and implementing regulations turned regulators into amateur psychologists. They might as well have a Ouija board to determine intent under the rule.    Rather than risking running afoul with regulations, banks have reduced their market-making activities. Combining the Volcker Rule with higher capital requirements at home and abroad has literally sucked essential working capital out of the market-making activities of banks.    Banks no longer act as principals in trading any more, but as agents. That decreases market liquidity on a daily basis.    Even though Secretary Lew--who by the way does not have a financial background--refuses to acknowledge it, the Volcker Rule is the needless regulation that has caused and will continue to cause harm to issuers and investors.    As the chairman quoted at the outset, former Senator Dodd famously said, ``No one will know until this is actually in place how it works.'' Five years later, the full effects of Dodd-Frank are still unknown. But the costs certainly have been borne not just by Wall Street but by ordinary investors and businesses of all shapes and sizes who are no safer today than they were in 2008.    Indeed, small investors will suffer more pain if the Administration goes through with the proposed changes to the ambit of fiduciary duty under ERISA. To say nothing of the myriad special interest provisions in Dodd-Frank that had absolutely nothing to do with the financial crisis such as conflict minerals certification, mineral extraction disclosure, and the CEO pay disclosure.    Moreover, until Congress claims some of the authority that it gave regulators under Dodd-Frank, particularly the authority given the FSOC and the Federal Reserve under Titles I and II, the greatest risk to the U.S. capital markets remains that government, and not the markets, will ultimately choose winners and losers.    Thank you, Mr. Chairman.    [The prepared statement of Mr. Atkins can be found on page 74 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Hensarling. Thank you.    Dr. Calabria, you are now recognized for your testimony.</t>
   </si>
   <si>
-    <t>Calabria</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Calabria. Chairman Hensarling, Ranking Member Waters, and distinguished members of the committee, thank you for the invitation to appear at today's important hearing.    I will note that it has been almost a year since I appeared before the committee, and I was starting to wonder if I had worn out my welcome. So, it is a delight to be back, and of course an honor to be part of such a distinguished panel.    The subtitle of today's hearing raises what I believe is probably the single most important question in financial regulation: Are we more stable? Let me cut the suspense and give you my answer. I think it is ``no.'' Now, let me tell you why.    I will note that there have been improvements. And I don't think anybody would disagree with that. In my written testimony, I talk about the improvements we have seen in bank capital. But my own opinion is that the net improvements have been outweighed by the net downsides.    This is also an extremely broad topic. I touch on a number of things in my written testimony, which I will be delighted to discuss later, but I am only going to focus on a few right now.    Let me first focus on what I believe is one of the more important contributors to financial instability, which is the moral hazard created by both implicit and explicit guarantees of risk taking.    The chairman mentioned the Richmond Fed's Bailout Barometer. As he noted, this is up to a full 60 percent of our financial system liabilities, either explicitly or implicitly backed by the Federal Government. I will note this is higher than both before Dodd-Frank and before the crisis.    Part of the measure of the implied too-big-to-fail is the too-big-to-fail subsidy of our largest banks. For reasons I detail in my written remarks, I do not believe that Dodd-Frank has ended too-big-to-fail. I will note that according to recent polling, neither does a plurality of the American public believe that either.    Some would claim that Title II's orderly liquidation process ends bailouts. I will note that I worked on a similar mechanism created under the Housing Economic Recovery Act for Fannie Mae and Freddie Mac. And so let us not forget, we had the tools to resolve Fannie and Freddie without a dime of cost to the taxpayer. Those are on the books. Those were not used.    So maybe I will characterize my concern this way. The ranking member mentioned choices. We are faced with that next time.    Regulators will have the choice whether they resolve an institution without relaying to the taxpayer, without taxing the rest of the financial services industry, or whether they impose losses on creditors. So let me emphasize that while I agree that Dodd-Frank's Title II offers a path to imposing losses on shareholders and creditors, I could not overemphasize, it is a choice.    One of the reasons I believe that choice will not be taken is if you simply compare an institution like Freddie Mac, which is smaller and less complex than an institution like Citibank, it suggests to me that it is very hard to believe that we would actually let Citibank fail.    There are a number of other institutions that we may let fail, but I don't think some of them would work.    I appreciate and commend the FDIC's attempts towards its single point of entry to try and improve upon that process. Setting aside its questionable legality, I would also emphasize that it is an optional approach. Whether it is actually followed or not is an open question.    Were it credible, markets would price holding company debt and subsidiary debt differently. Recent research from the New York Federal Reserve shows that this is not happening. So apparently, the markets don't even believe the single point of entry is going to be effective.    I will note that a handful of studies have found that designating systemic entities as ``systemically important,'' as is done under Title I, leads market participants to view these entities as too-big-to-fail.    I will remind the committee that in this very room in 1984, when the Comptroller of the Currency told us that the 11 biggest institutions were too-big-to-fail and they were going to be heavily regulated, we still ended up bailing out some of those institutions.    So, it is bad enough that unfortunately the implied guarantees of our largest banks have been further backed. We also have extended that privilege, as the chairman noted, to financial market infrastructure such as clearinghouses.    Another important driver of instability is monetary policy. Years of negative real interest rates incentivize all sorts of reckless behavior, such as that which helped inflate the housing bubble. I am certain that we are currently massively distorting our financial markets with our current monetary policy.    Let me be very clear in my opinion that the Fed's current policies will be very painful when they unwind. Most of us agree that mortgages play an important role in the crisis.    Dodd-Frank has indeed attempted to address problems in the mortgage market. As I detail in my written testimony, I believe these attempts have fallen short, and in many instances have done more harm than good.    I believe the evidence is overwhelming coming from such neutral parties as GAO that loan to value and borrower credit are the main primary drivers of default, yet these have been ignored.    I remind the committee that Congressman Frank sat at this table last year and testified that he clearly meant that downpayments should be a part of QM and QRM. The regulators have gutted these provisions, making them worse than useless.    Perhaps worst of all is that Dodd-Frank has helped drive almost all of the mortgage risk in the United States on the backs of the taxpayer. Fannie, Freddie, and FHA all hold essentially zero capital. When the housing market turns, which it will, the taxpayer will face a very large bill.    Even the IMF, no lover of free markets, highlighted earlier this week the instability risks from our housing finance system. If we continue along this path, I estimate that at least a million families will lose their homes in the next downturn from the reckless underwriting practices of the FHA alone.    Mr. Chairman, I commend you for calling today's important hearing. As we painfully learned over the last decade, financial crises are extremely costly and painful, both for the economy and for American families.    Had Dodd-Frank brought more stability to our financial system, I would be the first to applaud it. I do believe it has not.    Without sufficient reform, I believe we are almost certain to see another painful crisis within the next decade. Sadly, the warning signs were ignored before the last crisis.    I urge Congress not to ignore the warning signs this time around.    [The prepared statement of Dr. Calabria can be found on page 87 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Hensarling. Thank you.    Mr. Silvers, you are now recognized for your testimony.</t>
   </si>
   <si>
-    <t>Silvers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Silvers. Good morning, Chairman Hensarling, Ranking Member Waters, and members of the committee.    My testimony today is given on behalf of both the AFL-CIO, and Americans for Financial Reform, a coalition of over 200 organizations.    The Dodd-Frank Act passed in the wake of a financial crisis that cost the United States $22 trillion, according to the GAO. In the course of that crisis, 10 million families were thrown out of their homes and tens of millions lost their jobs. That is what we are trying--the statute was seeking to prevent occurring again.    But the Dodd-Frank Act was a compromise. It did not place size limits on financial institutions, it did not restore the Glass-Steagall Act, and it did not fundamentally change the incentives in the executive compensation system of our financial firms to take on excessive risk.    Rather than making these fundamental structural changes, the Act gave regulators the possibility of making structural change. This goes back to Dr. Calabria's point about choices.    What Dodd-Frank did do was resurrect fundamental principles of financial regulation that had been forgotten in the race to deregulate in the 1980s and 1990s. Most of all, the Dodd-Frank Act created a clear, workable alternative to the bailout of systemically significant institutions.    The resolutions process, contemplated in Title II, places the responsibility for first-hour losses and distress situations clearly where it should be, on the too-big-to-fail firms, their equity holders, bond holders, and executives. However, I would associate myself with Dr. Calabria's comments that this requires the regulators to actually choose to use it.    The U.S. financial regulatory system prior to the Dodd-Frank Act was a Swiss cheese system, full of holes allowing financial actors to evade both capital and transparency requirements for the price of a lawyer. The Act closed many, but not all, of these loopholes.    Five years later, among the clear results of these changes is a reduction in the credit market's perception that the government will bail out the Nation's largest banks if they get into trouble. GAO found that while there was a very large subsidy--in the credit markets for too-big-to-fail banks in 2009 and 2010.    Between 2010 and 2014, that subsidy fell to near zero as regulators showed through the progress of living wills, the adoption of single point of entry and the refinement of stress tests that they were serious about enforcing the provisions of Title II.    But the Dodd-Frank Act was not simply about protecting the financial system from itself. Its explicit purpose was to make financial markets less of a rigged game from the perspective of consumers and investors.    Here, the track record is impressive and expanding. For example, the CFPB has returned $5.3 billion of improperly obtained fees and penalties to over 15 million consumers and their families. And the Securities and Exchange Commission recently has begun using the Act to uncover widespread abuses of investors by private equity and hedge fund managers.    However, the Act necessarily depends on regulators to implement and enforce it, and all too often over the last 5 years regulators have succumbed to political pressures not to, particularly in the area of executive compensation.    And then, there was the recurring impulse in Congress to weaken financial regulation, that same impulse that brought us to crisis in the first place. We saw this on display in the Cromnibus negotiations last winter where Congress worked with the Obama Administration to repeal the hard-fought derivatives push out provisions and once again relink the derivatives market to the deposits of American families.    Efforts to weaken the Dodd-Frank Act have involved the use of a series of spurious arguments, including ``cost benefit analyses'' that looked only at the costs and not at the benefits. These sorts of arguments only have weight because of the political and economic power of the people making them.    And this brings us back to the issue of too-big-to-fail banks. The truth is that because Dodd-Frank was a compromise, because it largely left to the regulators the question of structural change, it has proven to be vulnerable to the continuing political power of the handful of too-big-to-fail banks that continue to dominate our financial system and exert a disproportionate influence on our politics.    In this sense, the unfinished agenda of financial reform is inextricably intertwined with the ability of the regulatory system to effectively implement the Dodd-Frank Act as it is to ensure the financial system does its job of efficiently transforming savings into investment and to protect the U.S. economy and the American public from a costly repeat of the financial crisis that began in 2007.    My answer, Mr. Chairman, to the question posed in the title of this hearing, is that the Dodd-Frank Act has definitely helped make our financial system more stable, but unless we deal with the too-big-to-fail problem more directly, the Dodd-Frank Act itself is not stable.    Thank you.    [The prepared statement of Mr. Silvers can be found on page 104 of the appendix.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman Hensarling. Thank you.    Professor Zywicki, you are now recognized for your testimony.</t>
   </si>
   <si>
-    <t>Zywicki</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Zywicki. Thank you, Chairman Hensarling, Ranking Member Waters, and members of the committee. I am a scholar of consumer credit, a former FTC senior staffer, and as a result, I was especially disappointed that Dodd-Frank had squandered an opportunity to modernize our financial consumer protection system, to a regime that would promote competition, consumer choice, and innovation.    If you look back at the record over the past 5 years, instead Dodd-Frank has substituted the judgment of Washington bureaucrats for American families with respect to the financial products that will make their lives better; thrown a blanket of uniformity over the consumer credit market, strangling innovation and crushing community banks; raised prices; and reduced consumer choice with respect to financial services.    And by reducing access to financial services, and because many small businesses use personal credit in their own businesses, it has dampened the economic growth and recovery. And I think most tragic of all, Dodd-Frank has done little to increase consumer protection for American families, but by driving millions of consumers out of the mainstream financial system, and into the hands of payday lenders, check cashers, pawn brokers, and all of the other alternative financial providers, it has actually made life worse for the most vulnerable members of society.    At the heart of Dodd-Frank was the Consumer Financial Protection Bureau, which is both the most powerful and unaccountable bureaucracy in American history, with the ability to regulate virtually every consumer credit product under vague and poorly defined standards.    If we look at the track record of the CFPB, and the way in which Dodd-Frank has been implemented, we see a sweeping amount of damage to American families as a result of this law.    First, Dodd-Frank has destroyed free checking for millions of Americans. Prior to Dodd-Frank, 76 percent of Americans had access to free checking; since Dodd-Frank was enacted, that number has fallen to 38 percent. Bank fees have doubled as a result of Dodd-Frank, driving approximately a million, if not more, consumers out of bank accounts and into the alternative financial sector.    With respect to credit cards, by interfering with the ability of credit card issuers to accurately price their risk, it is estimated that 275 million credit card accounts were closed, and $1.7 trillion in credit lines were eliminated, and again, those who bore the brunt of this were the lowest income consumers. According to the Federal Reserve, the number of--lowest quintile households with credit cards fell by 11 percentage points in the period since Dodd-Frank was enacted, taking credit cards out of the hands of American families, and forcing them to turn to payday loans and other alternatives to try to pay the rent, and to try to prevent eviction.    With respect to mortgages, Dodd-Frank has raised the cost and risk of lending, and continued to slow the housing recovery and access to mortgages.    Yet by doing nothing about downpayments and many of the other factors that led to the financial crisis, Dodd-Frank is doing little to prevent the next financial crisis.    Perhaps most notably, Dodd-Frank's rules, by throwing this blanket of uniformity and bureaucratic underwriting over the mortgage market, have driven community banks out of the mortgage market. According to a Mercatus study, for instance, 64 percent of community banks have changed their mortgage offerings as a result of Dodd-Frank and the CFPB, and by creating this new de facto plain vanilla rule, they have eliminated the ability of community banks to compete on what they do best, which is relationship lending.    One other area I would like to flag is this extraordinary data mining operation that the CFPB has undertaken with respect with consumer data. While--and perhaps this evidence is best, the dangers of creating a super unaccountable bureaucracy like the CFPB that--and the sort of egregious behavior that this leads to. For those not familiar with this, it is estimated that the CFPB is routinely scooping up 600 million credit card accounts, 22 million mortgages, and 5\\1/2\\ million student loans, all without the knowledge and consent of American consumers.    And that is still not enough. They want 95 percent of credit card accounts. According to one estimate, this is 70,000 percent more data than the CFPB needs in order to effectuate its regulatory purposes. This is especially worrisome in light of the fact that the Director of the CFPB himself has admitted that this data could be reverse engineered in the light of recent data breaches at the IRS, OPM, and elsewhere.    Thank you.    [The prepared statement of Mr. Zywicki can be found on page 111 of the appendix.]</t>
   </si>
   <si>
@@ -166,9 +145,6 @@
     <t>412437</t>
   </si>
   <si>
-    <t>Bill Huizenga</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Huizenga. Thank you, Mr. Chairman. I appreciate that.    And gentlemen, it is good to see you all again. Mr. Silvers, we have something that we agree on. I heard you say that the Dodd-Frank bill was a compromise piece of legislation, and by that I assume you mean a compromise between Senator Dodd and Representative Frank, because there weren't any Republican votes for that during that time.    But I do want to touch on a couple of quick issues that Mr. Atkins had touched on, and I am going to go in a little different direction because of some of the work that we have been doing on the committee.    The first one is pay ratio. The rule is expected to come out, I believe next month, from the SEC. I had an opportunity to question Chair White back in March of this year, and her quote from an October 2013 speech was that seeking to improve safety of--I'm sorry, it is my next question.    The pay ratio rulemaking, really the SEC didn't have any experience or expertise in this. At the time, it seemed the SEC doesn't know exactly where it is going, whether it is going to include part-time employees, contract employees which may be temporary workers, it may be the cleaning crew who comes in, who gets hired to come in, much less overseas employees.    So if you would maybe quickly touch base on that pay ratio provision that is required, and what you expect as a former SEC Commissioner, what might happen.</t>
   </si>
   <si>
@@ -196,9 +172,6 @@
     <t>400251</t>
   </si>
   <si>
-    <t>Carolyn B. Maloney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Maloney. Thank you, Mr. Chairman, Ranking Member Waters, and all of the panelists for your testimony today.    We need to remember that Dodd-Frank was a sweeping overhaul of our entire financial regulatory system that was brought on by the largest financial disaster in our history, where we lost, according to the GAO, independent, $22 trillion.    Tens of millions of people lost their jobs. Millions were out of work, and the economists who testified before this committee and others said that this had economic shocks that were 3 to 5 times stronger than the Great Depression, and it was caused by mismanagement of the financial system. And it was the only financial crisis that was totally self-inflicted.    I don't want to go through it again, so I am proud of any effort to stop any type of financial abuse. But one of the principal goals of Dodd-Frank was to improve the safety and soundness of our core banking system, and it was a response to a crisis which showed that many of our largest banks did not have nearly enough capital or nearly enough liquidity.    So it is important to point out that 5 years later, the biggest banks have more than doubled the amount of capital they hold. In fact, they now hold more than $1.1 trillion in capital, and the biggest banks have also nearly doubled their liquidity since the crisis, and they go through now a required annual stress test by the Federal Reserve that the IMF calls state-of-the-art.    So I believe that Dodd-Frank has successfully achieved its goal of shoring up safety and soundness of our banking system that serves our people and serves our country, making it stronger and more resilient. And this will make future financial crises less likely. And I am proud of that achievement.    Now I would like to ask Mr. Silvers about an important financial reform that we passed before the crisis--during that crisis--that I authored, and worked on for 4 years.    It was called the Credit Cardholders' Bill of Rights. Now, some on the panel have claimed that it harmed consumers. But there were two important studies. And I would like to put them into the record. I don't have them with me today. One was done by the Pew Foundation, which said this bill alone saved the American consumers $10 billion a year.    A joint report from New York University, Columbia and another university claimed it saved a whopping $20 billion a year. I call it the ``Maloney Stimulus Package'' because I for one would like to keep that money in the hands of consumers and not in institutions that by all accounts were performing--not all of them--unfair, deceptive, abusive, and anti-competitive practices.    So I would hear stories. It was hard to walk 2 feet without hearing a credit card story. One man was promised $8,000 on your interest. You can buy a car. He bought a car. Two months later, the financial institution raised his interest rate to 30 percent a year--30 percent. He was trapped in debt.    He paid off the car 2 or 3 times. He couldn't get out of debt. And so the Credit Card Bill of Rights cut out lies, cut out abusive practices, and made it fair. Now, banks tell me and the Consumer Financial Protection Bureau that they get very few complaints on credit cards.    People are not complaining because they are fair and that is what we want. We want fair practices in our financial system. So I don't--I would like to ask Mr. Silvers about the CARD Act. By the way, Rahm Emanuel told me that it continues to poll better than anything the Administration ever did because it touched every consumer in this country.    And I would say that this was a bill that passed with support from both sides of the aisle overwhelmingly.    Do you think the Credit Card Bill of Rights is abusive to American consumers? Do you think keeping their money in their hands is an abusive practice? I would like you to expand on this, if you would, Mr. Silvers.</t>
   </si>
   <si>
@@ -217,9 +190,6 @@
     <t>400644</t>
   </si>
   <si>
-    <t>Patrick T. McHenry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. McHenry. Well, happy anniversary. America has been saved. We are just living with the consequences of that savior, Dodd-Frank. And the consequences of that are lower growth, and impaired lending for community institutions and large institutions as well.    It means we have less job creation than we otherwise would have. And historically, Dodd-Frank is an anomaly in how Congress is legislated. And so, Dr. Calabria, I want to ask a little bit about this.    If you look at the last major crisis that my Democrat colleagues point to and say that this was an analogous situation we have lived through and that is the Great Depression. So out of the Great Depression, you have the Pecora Commission that reviewed the finite causes of what they were experiencing.    You had Congress in a bipartisan way--did they not write securities law, but the 1933 and 1934 Acts, right? These were not partisan endeavors as a result of that great crisis. Is there some context you could provide to that, Dr. Calabria?</t>
   </si>
   <si>
@@ -238,9 +208,6 @@
     <t xml:space="preserve">    Chairman Hensarling. The time of the gentleman has expired. The Chair now recognizes the gentlelady from New York, Ms. Velazquez, for 5 minutes.</t>
   </si>
   <si>
-    <t>Velazquez</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Velazquez. Thank you, Mr. Chairman. And I want to also thank Ranking Member Waters. Professor Zywicki, in your testimony you stated that the CFPB was to blame for a decline in new business starts.    Are you aware that the Small Business Administration is on track this year to having the highest record of small business lending since Dodd-Frank was enacted? And also, the NFYV in the latest report of small businesses shows that the optimism index is the highest since Dodd-Frank was enacted.    You even cited a report by the Brookings Institution, and I have it here. I read that report and there is no mention, sir, of the CFPB as a cause for that decline. In fact, the authors say that allowing more highly skilled immigrants into the United States may reverse this downward trend.    By the way, I should tell Mr. Donald Trump that he should read this document and get the story since he said the Latinos are going to love him because he is going to be the President creating jobs. Well, this is the answer to creating jobs.    Instead of dismantling the one Federal agency that looks out for consumers and has refunded them $5.3 billion, don't you think we should instead focus on immigration reform to help spur small business revival as the authors actually stated? Since you brought up this study, I think it is a fair question.</t>
   </si>
   <si>
@@ -271,9 +238,6 @@
     <t>400145</t>
   </si>
   <si>
-    <t>Scott Garrett</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Garrett. I thank the chairman for holding this very important hearing. The ranking member started out by saying the crisis of 2008 was not a natural disaster, and I agree that it was inflicted--as a matter of fact, the ranking member of the Capital Markets Subcommittee said it was self-inflicted, which I tend to agree with as well. But who was doing the infliction, is the question.    Mr. Silvers, you indicate that there was a failure of regulation and failure by the regulators. And I would agree with that. But you also said that they did not have the authority to prevent the crisis. That is factually incorrect based upon the multiple hearings that we had in this room.    Seven years ago, after 2008, Chairman Barney Frank at the time had multiple hearings, brought in the regulators at the time and I and others specifically asked each and every regulator, ``Knowing now what happened, did you have the authority in your area?'' They all said, ``Yes, we did.''    ``Did you actually have personnel stationed in the banks that failed?'' ``Yes, we did.'' So they had people, staff members working in these very banks that failed, that involved themselves in these risky trades and what have you, but they had the authority, at least they testified it to us repeatedly at that time.    Now, back to that period of time, my predecessor as chairman at that time was Paul Kanjorski, a Democrat from Pennsylvania. He said what we really needed was to--and he said this many times--have greater market discipline.    I don't know, I see some nodding heads by the panel here that that would have been a good thing then, and I see nodding heads that it would probably be a good thing now. The question is, how do you go about getting that?    Let's see, do you get more market discipline by increased regulation? Again, Mr. Silvers, you told us in your testimony just now that the regulators are still not doing their jobs. I will just throw a question out. Mr. Atkins, which Administration appointed the current SEC Chair?</t>
   </si>
   <si>
@@ -343,9 +307,6 @@
     <t>400271</t>
   </si>
   <si>
-    <t>Gregory W. Meeks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Meeks. Thank you, Mr. Chairman. And thank you, Ranking Member Waters. I get confused sometimes, but I think I heard Mr. Calabria say that he agreed that we did have a crisis in this country. Is that correct?</t>
   </si>
   <si>
@@ -367,9 +328,6 @@
     <t>400441</t>
   </si>
   <si>
-    <t>Randy Neugebauer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Neugebauer. Thank you, Mr. Chairman.    Mr. Zywicki, you spent quite a bit of your time on your academic research on consumer credit issues, and I have a bill, H.R. 1266, which would take the CFPB from a single director to a five-person commission, which I think would make that a more stable and sustainable organization. Could you elaborate on how that would help make it a more consistent and stable organization, if it was a five-person commission?</t>
   </si>
   <si>
@@ -421,9 +379,6 @@
     <t>400063</t>
   </si>
   <si>
-    <t>Michael E. Capuano</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Capuano. Thank you, Mr. Chairman. Mr. Chairman, I have heard a lot of interesting philosophical talking points this morning, but I have heard them before and I am sure I will hear them again and again and again and again. But I haven't heard too many figures. From the panel, it was one statistic, which is that there are fewer people with free checking than there used to be. My God, what a terrible crisis that is. People have to pay for a service. That is complete ruination to our system.    Yet some other statistics I have show some things from the day of Dodd-Frank, July 21, 2010. The Dow Jones was at 10,120.53. As of yesterday, it was 17,776.91, and today it is up a little more. That is a 76 percent increase and that is true about all the markets, Dow just being one, but it is true about S&amp;P, NASDAQ, and all of them, all of them are.    The unemployment rate in July 2010 was 9.4 percent. The most recent one in June was 5.3 percent, the lowest it has been since before the crash. The average house price in July 2010 was $252,100. Today, as of May 2015, it is $337,000. That is $84,900 more, a 34 percent increase. The GDP in July 2010 was $14,784,000,000. Today, it is $16,288,000,000, a trillion five increase, a 10 percent increase.    Housing starts. In July 2010, there was 604,000 in calendar year 2014. It was 1,046--I am sorry--1,046,000, 442,000 more, 73 percent increase in housing starts. Total construction value also a 19 percent increase and on and on and on.    Could Dodd-Frank be better? Yes. As a matter of fact, I have a proposal, because I agree with some of my friends that too-big-to-fail, I think we did some good work, but I think we didn't go far enough. I would love some of my colleagues on the other side to join me in reinstituting Glass-Steagall. I voted against the repeal of Glass-Steagall. Join us. Bring it back. If you don't want to do that, join us in trying to deal with other issues.    I have a proposal, H.R. 888, that not a single Republican will join, yet it is supported by the community bankers, the people you say you care about. They are looking for a Republican co-sponsor. We can't find one.    And, by the way, it is not my idea. I simply took the idea of an economics professor from Boston University and a scholar at AEI who happened to be the former Chief Counsel to Ronald Reagan. Not my idea, but yet can't do it, can't touch it. We can only talk about repealing Dodd-Frank and how bad certain sections of it are.    Why don't we get to fixing the problems we have. I have had my fights with the CFPB. I have certainly had my fights with the SEC and the Fed. Mr. Garrett and I have a bill to deal with some of the issues we have with the Fed. Now, if Scott Garrett and I could agree on an issue, we can find common ground with everybody over there. But yet, it can't be done. Why? Because if you actually try to fix the problems you identify as opposed to pontificate about them, you don't get any points with the outside groups.    Fixing a problem is a problem in and of itself. We are here to pontificate and we do a heck of a good job. So for me, all very interesting, but numbers don't lie. The numbers are almost all good. Are there a few bad ones? Yes. Can we do better? Sure, we can. Are we going to do better by simply nitpicking at everything? Now, nitpicking is not a bad thing, but nitpicking is what you do once you have fixed your other problems. There has not been one substantive proposal to deal with too-big-to-fail from the other side, not one, yet we still love to complain about it.    With that, Mr. Chairman, I yield back. I actually thought I wouldn't take the whole 5 minutes, but I am glad I did.</t>
   </si>
   <si>
@@ -433,9 +388,6 @@
     <t>412292</t>
   </si>
   <si>
-    <t>Blaine Luetkemeyer</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Luetkemeyer. Thank you, Mr. Chairman.    One of the things I want to talk about is the Financial Stability Oversight Council (FSOC.) We are talking about, are we more stable as a result of Dodd-Frank?    FSOC was a creation of Dodd-Frank that was supposed to judge the stability of our economy and how we are doing. And one of the things that they were empowered to do was to identify different risks within the financial system, in particular banks and non-bank, non-financial institutions if they are systemically important.    At this point, FSOC has evaluated and designated three insurance companies and one finance company as systemically important, such that if it goes down, the entire economy goes down.    Dr. Calabria, would you like to comment on that? Is that possible?</t>
   </si>
   <si>
@@ -475,9 +427,6 @@
     <t>400074</t>
   </si>
   <si>
-    <t>Wm. Lacy Clay</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clay. Thank you, Mr. Chairman. And I thank the ranking member for calling this hearing today to celebrate the fifth anniversary of Dodd-Frank.    Let me start with Dr. Calabria about the housing crisis. You say in your testimony that you don't believe we have sufficiently addressed the distortions in the housing industry.    Let me ask you about mortgage modifications. Do you think that will help our economy--how do we help those homeowners who are underwater and give them hope--homeowners who, for the most part, were steered into high-cost predatory loans. Do you have any--</t>
   </si>
   <si>
@@ -571,9 +520,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. I want to thank the panelists as well. You have all been very helpful with the committee.    I do want to just respond to my friend, the gentleman from North Carolina, who said earlier in this hearing that, and I will quote him, ``Dodd-Frank is an anomaly,'' an anomaly, of course, being something that deviates from what is regular or expected or what is standard.    The only reason that Dodd-Frank seems like an anomaly is because that is the last time Congress did anything, passed anything significant. And so, if you are in an environment that is inertia, a do-nothing Congress, and you look at something that actually moved, that seems like an anomaly. But it is just the illusion that motion causes when you are standing still.    I want to talk about--if we are going to go back to the crisis and sort of do some of this analysis on what went right and what went wrong, I actually opposed the bailout, the $700 billion in bailout we gave to the banks.    About 25 percent of people in my district don't even have bank accounts. I have a very diverse district. And so, we went and took their money, their tax money, and gave it to these banks, $700 billion.    And, it just--if we are going to go back and look what at we did, why don't we go back and look at that? Why don't we go back--and I am not just saying--I am not saying that some folks on Wall Street should go to jail; I will leave that to a judge and jury.    But some of their conduct seemed criminal, it really did. And we ended up taking taxpayer money, $700 billion, giving to the banks and like in the case of AIG I remember $9 billion of--we gave them $70 billion to help out AIG. But the $9 billion that we gave, the taxpayer money, was directly to satisfy the debt obligations that were held by Goldman Sachs.    So, it was just a pass through. It went right in one door of AIG and then right to Goldman Sachs--$9 billion. And it paid bonuses to a lot of people who were at the heart of this, like I said, I am not saying they should go to jail but I would say we should be revisiting the bonuses that we paid to folks who caused a lot of this mess.    And we are not talking about any of that. We are talking about dismantling Dodd-Frank. We are talking about dismantling the one and only consumer protection agency that we created. So, we have all these agencies out there, we have one, the CFPB, the only agency that we have created to protect the consumer.    And we look back at the problem of the crisis and we say, my God, the thing we have to do is get rid of that CFPB, the one agency that is actually protecting the consumer. It astounds me that is how we view this problem in retrospect.    I think that we would better serve the people whom we represent if we try to figure out ways to help them. And, sure, the CFPB is not perfect. It needs tweaking. We need to help it to be more effective and we need to address some of the concerns that the gentleman just raised regarding their treatment of employees and the disparate impact of some of their policies.    But, Mr. Silvers, in this last minute that I have, would you think that there are other priorities that we could focus on in terms of really trying to get at the root of what originally caused the--oh, the other thing that strikes me is getting rid of the Volcker Rule--allowing the banks to go back and do what they were doing before they got us into this whole mess, trading on their book of business, it doesn't make sense.    But, Mr. Silvers, if you have any other suggestions on how we might re-establish priorities here that would actually help the American consumer and the American people, I would love to hear them.</t>
   </si>
   <si>
@@ -598,9 +544,6 @@
     <t>400313</t>
   </si>
   <si>
-    <t>Stevan Pearce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pearce. Thank you, Mr. Chairman. I appreciate the lively discussion going on here. If we were to pursue this last thought here that the subprime lenders are the ones that destroyed the communities, I would kind of like to investigate that--Mr. Capuano said we ought to be digging a little deeper into it. And Mr. Lynch had some good points about looking at the situation.    So, Mr. Atkins, you said in response to Mr. Duffy that Fannie and Freddie had something to do with it, among others. Who might the among others be?</t>
   </si>
   <si>
@@ -658,9 +601,6 @@
     <t>400639</t>
   </si>
   <si>
-    <t>Emanuel Cleaver</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Cleaver. Thank you, Mr. Chairman, and Ranking Member Waters.    No matter what our ideology is, political affiliation or fussiness, facts tend to be extremely obstinate. They just are finicky like that. They just want to remain what they are. And so, in this environment up on this Hill, we have become in a sense a fact-free environment.    Or in other words, if the facts don't fit, then bit by bit we refit the facts. It is so frustrating when you think about how the CFPB has returned $5.3 billion to 15 million victims of unfair and deceptive practices.    Dr. Calabria, do you believe that is a fact?</t>
   </si>
   <si>
@@ -712,9 +652,6 @@
     <t>400348</t>
   </si>
   <si>
-    <t>Edward R. Royce</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Royce. Thank you very much, Mr. Chairman. As we examine the Dodd-Frank Act 5 years later and if I were to go down a checklist with the panel here, too-big-to-fail continues. In fact, Dodd-Frank institutionalized it.    Our secondary mortgage market remains in limbo with Fannie Mae and Freddie Mac CEOs set to make $4 million salaries on the backs of the American taxpayers who had bailed out Fannie Mae and Freddie Mac.    Insurance regulation remains fragmented. Securities regulatory arbitrage is still possible, but with the SEC and the CFTC as competing regulators. So, I think the answer to the question, is our financial system more stable, as Dr. Calabria succinctly put it, I think the answer to that is ``no.''    Dodd-Frank abolished one failed regulator, the OTS, and gave us three more--the CFPB, the OFR, and the FSOC. So, the Office of Financial Research was set up to look around corners and identify potential systemic risks, to improve standardization of financial data and fill gaps in data collection, and support the FSOC in its work. That was the concept.    And, Mr. Atkins, as you know, the OFR performed an analysis of the asset management industry at the request of the FSOC in order to determine whether asset management firms should be designated as SIFIs and subjected to oversight by the Federal Reserve.    The OFR's conclusions were described by SEC Commissioner Gallagher as, in his words, ``fundamentally flawed.'' And the inevitable results of the OFR not only inaccurately defining and describing the activities and participants in the asset management business but also ``analyzing the purported risk posed by asset managers in a vacuum instead of in the context of the broader financial markets.''    Mr. Atkins, do you think the work of the OFR was flawed?</t>
   </si>
   <si>
@@ -742,9 +679,6 @@
     <t>400661</t>
   </si>
   <si>
-    <t>Gwen Moore</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Moore. Thank you so much, Mr. Chairman. And I want to thank the witnesses for coming here and bringing their tremendous expertise to this committee.    I guess I will start out with the Honorable Paul Atkins and talk to you a little bit about your testimony and your role at the SEC. In your testimony, I think you make a lot of excellent points with regard to some of the misaligned incentives that people have just generally in financial markets.    And then you go on and on and on to indict various provisions of the Dodd-Frank Act up to and including the fact that Dodd-Frank is 2,319 pages long.    The bill that we got from Mr. Paulsen was like 4 pages long, asking us for $700 billion, I just want to remind you of that. But I guess the question that I have is that I agree with a lot of points you make here and I am going to commit to really reading this in some depth.    But I guess what I feel confused about is, or I have a question about is, while you seem to indict the free market, just laissez-faire, you don't really give us any prescription of what you would have done to prevent this crisis other than to just indict the ``housing market,'' the purchasers of homes.    People purchase their homes; it is like a one-time event for most people. And you don't seem to have much criticism for all of the guys in the fancy suits, the appraisers, the underwriters, the credit rating agencies, the private label mortgage originators, Lehman Brothers, Countrywide.    And so I am interested in hearing how you square that with housing policy. Countrywide and Lehman Brothers, for example, were not subject to CRA and bowers that came in were--as I said people who do this once in their lives, they were not the appraisers, they were not the underwriters.</t>
   </si>
   <si>
@@ -769,9 +703,6 @@
     <t>412411</t>
   </si>
   <si>
-    <t>Dennis A. Ross</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ross. Thank you, Mr. Chairman, and witnesses, I appreciate you being here, specifically Commissioner Atkins. You addressed something that I think is very important when we talk about systemically important financial institutions, especially as it relates to asset managers.    I think what is even more compelling is that your pronunciation of the acronym for systemically important financial institutions as ``sci-fi'' is just that when it comes to asset managers--science fiction. And I think that this is an unintended consequence of Dodd-Frank. What risk do asset managers have?    They are essentially agents, they are not leveraged, and yet here we are looking at making them a systemically important financial institution as I understand it in your testimony would then make that asset manager as a SIFI or sci-fi jointly and separately liable for any other SIFI or sci-fi that might have a need for liquidity, is that correct?</t>
   </si>
   <si>
@@ -844,9 +775,6 @@
     <t>400371</t>
   </si>
   <si>
-    <t>Brad Sherman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Sherman. Thank you. I am one of those who was here when Dodd-Frank was written. I am here to report that it was written in this room, not on Mount Sinai, nor was it written by Beelzebub in the nether regions.    It is not sacrosanct but that does not mean it should be discarded. We need to improve it, not dismantle it. And in spite of its great length, it lacks a whole lot of specificity.    It gives tremendous power to the regulators. And God forbid if we get an Administration of the other party, we will see just how much discretion it is; a well-drafted statue means the same thing whether you elect a Democrat to administer the law or a Republican to administer the law.    I think if we ever get a Republican Administration, heaven forbid, we will find out how much latitude there is in that statute and how Congress should have been more specific.    As to SIFIs, I join with the gentleman from Florida who should be praised at length except he is not here anymore about designating money and mutual fund managers as SIFIs, as I bored some of my colleagues with before Lehman Brothers didn't cause a problem because it had too many assets.    If you are trying to determine whether an entity is a problem, you say, what are its liabilities, who loses if it doesn't pay its debts? And a mutual fund doesn't have any debts in almost every case.    So the idea that we would designate mutual funds as SIFIs because Countrywide made bad mortgages seems rather extreme. Mr. Atkins, I want to focus with you on these credit rating agencies.    You put forward the idea that the fault is the people who pay attention to the credit rating agencies, who rely on the credit rating agencies.    Let's say you are an ordinary consumer, you have $50,000 to invest, and you are trying to compare the Vanguard bond fund with the T Rowe Price bond fund.    And they both have the exact same portfolio in ratings, 20 percent AAA, 30 percent AA, 40 percent, exactly the same and one is yielding 10 basis points more than the other. How would you, knowing that you have $50,000 to invest, which means you can't hire Deloitte and Touche to give you a report. How would you decide to forego the extra point 1 percent of return when you see the only way you have of evaluating those two bond portfolios is how the individual bonds are rated by the credit rating agencies? How would you take your own advice and not rely too much on the credit rating agency?</t>
   </si>
   <si>
@@ -862,9 +790,6 @@
     <t>412551</t>
   </si>
   <si>
-    <t>Robert Pittenger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Pittenger. Thank you, Mr. Chairman. I would like to respond to Mr. Capuano's references earlier. He was lauding the merits of the Dodd-Frank Act and attributes of it and what it had done on behalf of our economy and our housing market.    I am from Charlotte. Charlotte is one of the better economic regions of the country. According to a Metro Study, which is a nationwide data company, in 2006 we had 24,415 housing starts. In 2014, we had 9,238 housing starts.    We are up 40 percent from where we were. And I think stats are relative. You can convey a stat in whatever way that you want to make them sound good, and I would compliment Representative Cleaver that we need the facts and those are the facts.    So while I always appreciate the enthusiasm of Mr. Capuano, I think we need to be clear that we have not seen the return in the market, in the housing market which my former company was involved in for 25 years in, throughout the country.    Access to capital is critical, and it is not there. The impediments in getting that capital are clear. These developers had to go outside. They had to go private equity and other firms that are much more costly.    So for clarification, I felt that was prudent.    Dr. Calabria, as you know, the insurance companies are under extensive supervision by the States. State laws or regulations are designed to do three things: stop serious financial distress in an insurance company from ever developing; redress material financial distress when it occurs; and limit the scope and impact of a stress event by facilitating interstate coordination and remedial action.    Do you believe that there exist gaps and regulation of insurers than have made FSOC designation of insurers necessary?</t>
   </si>
   <si>
@@ -904,9 +829,6 @@
     <t>412215</t>
   </si>
   <si>
-    <t>Keith Ellison</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ellison. I want to thank the Chair and the ranking member and also the panel. Mr. Silvers, one of the requirements of Dodd-Frank was publicizing the ratio of CEO pay to median worker for publicly traded firms.    I just want to point out that back in 1980 when I was a sophomore in high school, the ratio was about 42:1. In 2014, CEOs received about 373 times the average employee.    I guess my question to you is, why is this important knowledge for investors, and how does this knowledge further our discussion of addressing economic stability and even equity?</t>
   </si>
   <si>
@@ -973,9 +895,6 @@
     <t>412570</t>
   </si>
   <si>
-    <t>Keith J. Rothfus</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rothfus. Thank you, Mr. Chairman.</t>
   </si>
   <si>
@@ -1033,9 +952,6 @@
     <t>412282</t>
   </si>
   <si>
-    <t>James A. Himes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Himes. Thank you, Mr. Chairman. And thank you to the panel.    I really appreciate this opportunity to reflect after 5 years on the effectiveness of Dodd-Frank. I was here when it was put together and I participated in the many discussions around its creation. And I remember the extravagant, not to say apocalyptic warnings about how this was going to be what everything else, the Democrats proposed at that time, a job-killing bill.    That it would represent--what has generated some echoes here today, a lack of freedom for consumers, and all sorts of other things. And of course--and this caught my attention, it was to devastate, and again, the language was beyond apocalyptic. It was to devastate a key American competitive advantage, our capital markets.    A lot of that criticism has begun to fade such that we hear echoes of it today. It is hard to call all that stuff job killing when you have been through 12 million new jobs created in on average 250,000 jobs added per month. It takes some sting out of that accusation.    The question of the capital markets, though, caught my attention. I have the privilege and sometimes challenge of representing a district which is very, very dense with people who work in the financial services industry. And I am the first to recognize that there was both individual and institutional crazy, if not to say criminal, behavior in the industry.    But it is also true that these capital markets are essential to Main Street, to borrowing for mortgages and student loans and consumer lending, and of course for our businesses. So I thought I might just take a look at the facts around what has occurred in the capital markets in these last 5 years and just together some facts which are displayed there.    And I would ask the Chair for unanimous consent to make this a part of the record.</t>
   </si>
   <si>
@@ -1114,9 +1030,6 @@
     <t>400653</t>
   </si>
   <si>
-    <t>Al Green</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Green. Thank you, Mr. Chairman. And I thank you for your service on this committee as well.    It is my understanding that some of the Members today have opened the door to talking about invidious discrimination, and while we are talking about Dodd-Frank, I think that it is appropriate that we mention some aspects of invidious discrimination, because there are some things that Dodd-Frank does not do to the extent that I think that it should. So, I agree with those who contend that Dodd-Frank is an imperfect piece of legislation.    Let's just talk about some of the things that I would like to see us impact by way of the work of the committee.    I have a statement here indicating that minority business owners paid interest rates that were 32 percent higher than what whites paid for loans in 2012. This is by way of the Federal Reserve, by the way. This is what the Fed says. Dodd-Frank doesn't do enough to address this kind of invidious discrimination. I am pleased that someone brought it up today. Otherwise, I might not have put this on the record.    According to The Wall Street Journal, in 2013 only 4.8 percent of loans made to buy homes were made to blacks. However, blacks comprised 13.2 percent of the total population in 2013. Now I know that we can rationalize that and say, blacks don't make as much, they probably don't have the credit history, there are all kinds of ways to rationalize it. But one of the best things that we can do is investigate and find out why blacks are at this number.    In 2013, only 7.3 percent of loans made to buy homes were made to Latinos. However, Latinos comprised 17.15 percent of total population in 2013. Dodd-Frank doesn't do enough to help us, and I hope that the committee will.    According to CNN, 2013 HMDA data, the conventional mortgage load denial rate was 10.4 percent for whites; by comparison, however, the denial rate stood at 27.6 percent of blacks, 21.9 percent for Hispanics, and 13.3 percent for Asians.    The information goes on and on and on but I will move now to the Washington Post. Between 2004 and 2008, black borrowers were 54 percent more likely to have a high interest rate mortgage, black borrowers. Latino borrowers, 45 percent more likely to have a high interest rate than similar white Borrowers, I might add, and Asian-American borrowers were 7 percent more likely.    Now, these are things that we can investigate, things that I think the committee should investigate. I think that on the heels of what we have just seen in South Carolina, where we are eliminating symbolism, it seems to me that we have an opportunity to actually get into the invidious discrimination that still takes place. And my hope is that we will look after these things at the committee level. We are currently examining the CFPB, and of course until 1968, we were known as the Banking Committee.    These lenders bear a look being taken at them. My hope is that we will do it because we tell people to pull themselves up by their bootstraps.    These loans, these mortgages are bootstraps. In my last 9 seconds, I appeal to the committee to please, it is an appeal, let's look into this. I thank you, Mr. Chairman. I yield back.</t>
   </si>
   <si>
@@ -1126,9 +1039,6 @@
     <t>412405</t>
   </si>
   <si>
-    <t>Scott R. Tipton</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Tipton. Thank you, Mr. Chairman. I appreciate the panel's time for being able to be here as we listen to our colleagues' comments from the other side of the aisle. They want to be able to interpret that Dodd-Frank has helped bring the economy back.    I think it is worthy to note that we have the lowest labor participation rate in 4 decades. For the first time, I think you have mentioned this, the Brookings Institution report coming out saying we have more small businesses shutting down than there are new business startups in this country. We are suffering under two trillion dollars worth of regulatory costs which is driving up cost, if you care about people who are on fixed incomes, young families who are trying to be able to get a start, increasing their cost by inhibiting their ability to have access to capital.    We have talked about Dodd-Frank today and too-big-to-fail. Unfortunately, it has become apparent both anecdotally and empirically that the legislation has failed to be able to live up to its goals. Banks in my district and across the country have told me time and again that the compliance costs brought on by one-size-fits-all regulatory schemes made it impossible for them to be able to lend to creditworthy Main Street businesses.    Instead of working with the community, small banks and credit unions are working to comply with rules and regulations that were intended to curb Wall Street banks. Delta Bank in Delta, Colorado, told me that they don't know how much longer they are going to do it because they feel that they are no longer working as a bank, they are working for the Federal Government and for regulators.    Large banks do have the economy of scale to be able to deal with additional compliance costs but smaller banks simply cannot compete. Instead of promoting healthy growth in the financial system, the rate of decline in community banks' market share has doubled since Dodd-Frank was enacted. For this reason, I introduced the Taylor Act of 2015, legislation that directs Federal regulators to consider the risk profile and business model of an institution promulgating regulations.    Regulations will be tailored in order to be able to limit compliance costs when the regulation is considered not necessary or appropriate for the institution. This piece of legislation which has the support of over 55 State banking and credit union associations is a crucial step toward limiting the regulatory burden for those banks and credit unions that are struggling to be able to operate in our Main Street communities because of the burdens placed on them by Dodd-Frank.    Mr. Zywicki, you had commented several times during your testimony about the destruction of the relationship between community banks and the customers that they were designed to serve. Can community banks survive in this new regulatory framework if they can no longer rely on that traditional banking relationship?</t>
   </si>
   <si>
@@ -1156,9 +1066,6 @@
     <t>412578</t>
   </si>
   <si>
-    <t>Roger Williams</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Williams. Thank you, Mr. Chairman, for holding this hearing today, and I want to thank all of you for being here.    I wanted to switch gears a little bit and discuss how the CFPB under Dodd-Frank has continued to expand its influence into areas where it has no authority. That is something even Director Cordray told me himself that the law doesn't address. Of course, I am talking about the auto industry. I am a car dealer. I am one of them. Okay.    So Mr. Zywicki, I would like to ask you about the CFPB settlement with Allied Financial in which CFPB got Allied to pay $98 million by accusing the company of discrimination against car buyers based on disparate impact statistics.    I have said this in previous hearings but I think it is worth repeating today, as a car dealer myself, the idea that I would charge different prices to my customers based on race, religion or the color of one's skin is offensive not only to me but to my industry. In fact, if I was doing that, I don't think I would be very successful.    So, it has been a year-and-a-half since the Allied settlement. Do you know if the CFPB has paid any of the $98 million to consumers whom the CFPB said were discriminated against?</t>
   </si>
   <si>
@@ -1174,9 +1081,6 @@
     <t>412474</t>
   </si>
   <si>
-    <t>Mick Mulvaney</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Mulvaney. I have not.</t>
   </si>
   <si>
@@ -1222,9 +1126,6 @@
     <t>412541</t>
   </si>
   <si>
-    <t>Andy Barr</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Barr. Yes, Mr. Chairman, I would like to take even more with this great panel. But I appreciate the recognition, and I thank the panel for your testimony.    This has been a fascinating hearing as we examine the impact of the Dodd-Frank law 5 years since its enactment. And let me start with Professor Zywicki. I am particularly concerned about the impact that the Consumer Financial Protection Bureau is having on access to consumer credit. For many of my constituents in central and eastern Kentucky, and I too have heard that, the unfortunate stories of creditworthy borrowers who are no longer able to access a mortgage or get a credit card or an auto loan or maybe short term credit.    The example that you gave about the gentleman who needs a $500 transmission change just to get to work but no longer has access to short-term credit or a payday loan really does have a negative impact not just on the broader economy but on these families. And it is really sad.    But let me ask you a follow-up to Chairman Neugebauer's proposal, which was a proposal to reform the Bureau to a commission structure, a bipartisan commission structure. I also have a reform bill called the Taking Account of Bureaucrats' Spending Act (TABS).    This would place the Bureau under the appropriations process like many other regulators in the Federal Government. What impact would that have in terms of effectuating the Congress' power of the purse in holding the Bureau accountable?</t>
   </si>
   <si>
@@ -1258,9 +1159,6 @@
     <t>412447</t>
   </si>
   <si>
-    <t>Frank C. Guinta</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Guinta [presiding]. Thank you, Mr. Chairman, and thank you for your indulgence relative to our voting schedule this afternoon.    I first want to thank the panel for being here. It is clear to me and there has certainly been debate about this, but I have clearly seen the harmful effects of Dodd-Frank and the effects that it has had on community financial institutions, and most importantly, those consumers and users of those products.    The Mercatus Center of George Mason University recently released a paper, actually back in February 2014, which showed that small bank have eliminated or are planning to discontinue certain products or services as a result of Dodd-Frank, that is indisputable fact.    Nearly 64 percent of the banks surveyed anticipate making changes to the nature or assortment and volume of mortgage products and services as a result of this new regulatory action. The study also showed that roughly 10 percent anticipate discontinuing residential mortgages due to Dodd-Frank. And approximately 5 percent have already done so. Residential mortgages or mortgage servicing, home equity lines, credit, and overdraft protection are among the most likely products and services to be cut.    In New Hampshire, where I represent, we have about 30 community banks that offer a wide array of products and services to Granite Staters. However, due to severe regulations, I continue to hear from my community banks that they have had to limit products. They have had to limit loans and services to my constituents, to their customers and consumers. I personally do not see that as a favorable response to Dodd-Frank; maybe others disagree.    But I wanted to ask Professor Zywicki, would you agree that consumer choice in products and services is important for overall well-being for consumers? Or do you think that more choice in products and services harms those very consumers?</t>
   </si>
   <si>
@@ -1355,9 +1253,6 @@
   </si>
   <si>
     <t>412639</t>
-  </si>
-  <si>
-    <t>Tom Emmer</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Emmer. Thank you, Mr. Chairman, and thanks to the panel for your patience in being here. In the short time, there are just a couple of areas I want to cover which have been covered in some respects today.    But I just want to make it clear because I have some things from my district that I want to share with you. Why don't we do--Mr. Zywicki if you would, I think others have already given this testimony but could you just confirm? Do you believe that Dodd-Frank is actually harming the ability of financial institutions to make loans and offer credit to people in businesses?</t>
@@ -1798,11 +1693,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1822,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1850,11 +1741,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1874,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1902,11 +1789,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1928,11 +1813,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1952,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1980,11 +1861,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2004,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2032,11 +1909,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2056,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
         <v>25</v>
-      </c>
-      <c r="G12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -2084,11 +1957,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2108,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -2136,11 +2005,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2160,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2188,11 +2053,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -2212,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -2240,11 +2101,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -2264,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -2292,11 +2149,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -2316,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>25</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2344,11 +2197,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2368,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2396,11 +2245,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2420,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -2446,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2474,11 +2317,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -2498,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -2524,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
-      </c>
-      <c r="G30" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2550,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2576,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2602,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2628,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
-      </c>
-      <c r="G34" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2654,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
         <v>49</v>
-      </c>
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2682,11 +2509,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2706,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>59</v>
-      </c>
-      <c r="G37" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2732,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2758,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>59</v>
-      </c>
-      <c r="G39" t="s">
-        <v>60</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2784,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2812,11 +2629,9 @@
       <c r="F41" t="s">
         <v>11</v>
       </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2836,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" t="s">
-        <v>67</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2862,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>25</v>
-      </c>
-      <c r="G43" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2888,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
-      </c>
-      <c r="G44" t="s">
-        <v>67</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2914,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>25</v>
-      </c>
-      <c r="G45" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2940,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" t="s">
-        <v>67</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2968,11 +2773,9 @@
       <c r="F47" t="s">
         <v>11</v>
       </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2992,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>25</v>
-      </c>
-      <c r="G48" t="s">
-        <v>74</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3018,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>25</v>
-      </c>
-      <c r="G49" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3044,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>25</v>
-      </c>
-      <c r="G50" t="s">
-        <v>74</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3070,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3096,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>25</v>
-      </c>
-      <c r="G52" t="s">
-        <v>74</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3122,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>25</v>
-      </c>
-      <c r="G53" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3150,11 +2941,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3174,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>25</v>
-      </c>
-      <c r="G55" t="s">
-        <v>74</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3202,11 +2989,9 @@
       <c r="F56" t="s">
         <v>11</v>
       </c>
-      <c r="G56" t="s">
-        <v>12</v>
-      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3226,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>84</v>
-      </c>
-      <c r="G57" t="s">
-        <v>85</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3252,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
-      </c>
-      <c r="G58" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3278,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
-      </c>
-      <c r="G59" t="s">
-        <v>85</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3304,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
-      </c>
-      <c r="G60" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3330,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>84</v>
-      </c>
-      <c r="G61" t="s">
-        <v>85</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3356,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
-      </c>
-      <c r="G62" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3382,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
-      </c>
-      <c r="G63" t="s">
-        <v>85</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3408,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
-      </c>
-      <c r="G64" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3434,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
-      </c>
-      <c r="G65" t="s">
-        <v>85</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3460,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
-      </c>
-      <c r="G66" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3486,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>84</v>
-      </c>
-      <c r="G67" t="s">
-        <v>85</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3512,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
-      </c>
-      <c r="G68" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3538,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
+        <v>73</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
         <v>84</v>
-      </c>
-      <c r="G69" t="s">
-        <v>85</v>
-      </c>
-      <c r="H69" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3564,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
-      </c>
-      <c r="G70" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3590,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>84</v>
-      </c>
-      <c r="G71" t="s">
-        <v>85</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3616,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
-      </c>
-      <c r="G72" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3642,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>84</v>
-      </c>
-      <c r="G73" t="s">
-        <v>85</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3668,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>25</v>
-      </c>
-      <c r="G74" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3694,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>84</v>
-      </c>
-      <c r="G75" t="s">
-        <v>85</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3720,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3746,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>84</v>
-      </c>
-      <c r="G77" t="s">
-        <v>85</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3772,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>25</v>
-      </c>
-      <c r="G78" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3798,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>84</v>
-      </c>
-      <c r="G79" t="s">
-        <v>85</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3826,11 +3565,9 @@
       <c r="F80" t="s">
         <v>11</v>
       </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3850,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>108</v>
-      </c>
-      <c r="G81" t="s">
-        <v>109</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3876,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>25</v>
-      </c>
-      <c r="G82" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3902,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>108</v>
-      </c>
-      <c r="G83" t="s">
-        <v>109</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3928,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>25</v>
-      </c>
-      <c r="G84" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3954,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>108</v>
-      </c>
-      <c r="G85" t="s">
-        <v>109</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3982,11 +3709,9 @@
       <c r="F86" t="s">
         <v>11</v>
       </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -4006,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>116</v>
-      </c>
-      <c r="G87" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -4032,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>25</v>
-      </c>
-      <c r="G88" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -4058,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>116</v>
-      </c>
-      <c r="G89" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -4084,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>25</v>
-      </c>
-      <c r="G90" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -4110,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>116</v>
-      </c>
-      <c r="G91" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -4136,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>25</v>
-      </c>
-      <c r="G92" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4162,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>116</v>
-      </c>
-      <c r="G93" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -4188,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>25</v>
-      </c>
-      <c r="G94" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -4214,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>116</v>
-      </c>
-      <c r="G95" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -4240,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>25</v>
-      </c>
-      <c r="G96" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4266,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>116</v>
-      </c>
-      <c r="G97" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -4292,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
-      </c>
-      <c r="G98" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -4318,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
+        <v>103</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
         <v>116</v>
-      </c>
-      <c r="G99" t="s">
-        <v>117</v>
-      </c>
-      <c r="H99" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -4344,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
-      </c>
-      <c r="G100" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -4370,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>116</v>
-      </c>
-      <c r="G101" t="s">
-        <v>117</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -4398,11 +4093,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -4422,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>134</v>
-      </c>
-      <c r="G103" t="s">
-        <v>135</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -4450,11 +4141,9 @@
       <c r="F104" t="s">
         <v>11</v>
       </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -4474,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>138</v>
-      </c>
-      <c r="G105" t="s">
-        <v>139</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -4500,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
-      </c>
-      <c r="G106" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -4526,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>138</v>
-      </c>
-      <c r="G107" t="s">
-        <v>139</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -4552,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
-      </c>
-      <c r="G108" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4578,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>138</v>
-      </c>
-      <c r="G109" t="s">
-        <v>139</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4604,13 +4283,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
-      </c>
-      <c r="G110" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4630,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>138</v>
-      </c>
-      <c r="G111" t="s">
-        <v>139</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4656,13 +4331,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
-      </c>
-      <c r="G112" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4682,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>138</v>
-      </c>
-      <c r="G113" t="s">
-        <v>139</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4708,13 +4379,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>25</v>
-      </c>
-      <c r="G114" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4734,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>138</v>
-      </c>
-      <c r="G115" t="s">
-        <v>139</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4762,11 +4429,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4786,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>152</v>
-      </c>
-      <c r="G117" t="s">
-        <v>153</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4812,13 +4475,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
-      </c>
-      <c r="G118" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4838,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>152</v>
-      </c>
-      <c r="G119" t="s">
-        <v>153</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4864,13 +4523,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>25</v>
-      </c>
-      <c r="G120" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4890,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>152</v>
-      </c>
-      <c r="G121" t="s">
-        <v>153</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4916,13 +4571,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>25</v>
-      </c>
-      <c r="G122" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4942,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>152</v>
-      </c>
-      <c r="G123" t="s">
-        <v>153</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4968,13 +4619,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>25</v>
-      </c>
-      <c r="G124" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4994,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>152</v>
-      </c>
-      <c r="G125" t="s">
-        <v>153</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -5022,11 +4669,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -5046,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -5072,13 +4715,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>25</v>
-      </c>
-      <c r="G128" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -5098,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -5124,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>25</v>
-      </c>
-      <c r="G130" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -5150,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -5176,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>25</v>
-      </c>
-      <c r="G132" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -5202,13 +4835,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -5228,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>25</v>
-      </c>
-      <c r="G134" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -5254,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -5280,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>25</v>
-      </c>
-      <c r="G136" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -5306,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>21</v>
-      </c>
-      <c r="G137" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -5332,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>25</v>
-      </c>
-      <c r="G138" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -5358,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>21</v>
-      </c>
-      <c r="G139" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -5384,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>25</v>
-      </c>
-      <c r="G140" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -5410,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>21</v>
-      </c>
-      <c r="G141" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -5436,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>25</v>
-      </c>
-      <c r="G142" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -5462,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>21</v>
-      </c>
-      <c r="G143" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -5488,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>25</v>
-      </c>
-      <c r="G144" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5514,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>21</v>
-      </c>
-      <c r="G145" t="s">
-        <v>22</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -5542,11 +5149,9 @@
       <c r="F146" t="s">
         <v>11</v>
       </c>
-      <c r="G146" t="s">
-        <v>12</v>
-      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5566,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>184</v>
-      </c>
-      <c r="G147" t="s">
-        <v>185</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5592,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>25</v>
-      </c>
-      <c r="G148" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5618,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>184</v>
-      </c>
-      <c r="G149" t="s">
-        <v>185</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5644,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>25</v>
-      </c>
-      <c r="G150" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5672,11 +5269,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5696,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>184</v>
-      </c>
-      <c r="G152" t="s">
-        <v>185</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5724,11 +5317,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5748,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>193</v>
-      </c>
-      <c r="G154" t="s">
-        <v>194</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5774,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>25</v>
-      </c>
-      <c r="G155" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5800,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>193</v>
-      </c>
-      <c r="G156" t="s">
-        <v>194</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5826,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>25</v>
-      </c>
-      <c r="G157" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5852,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>193</v>
-      </c>
-      <c r="G158" t="s">
-        <v>194</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5878,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>25</v>
-      </c>
-      <c r="G159" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5904,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>193</v>
-      </c>
-      <c r="G160" t="s">
-        <v>194</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5930,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>25</v>
-      </c>
-      <c r="G161" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5956,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>193</v>
-      </c>
-      <c r="G162" t="s">
-        <v>194</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5982,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>25</v>
-      </c>
-      <c r="G163" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -6008,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>193</v>
-      </c>
-      <c r="G164" t="s">
-        <v>194</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -6034,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>25</v>
-      </c>
-      <c r="G165" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -6060,13 +5627,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>193</v>
-      </c>
-      <c r="G166" t="s">
-        <v>194</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -6086,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>25</v>
-      </c>
-      <c r="G167" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -6112,13 +5675,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>193</v>
-      </c>
-      <c r="G168" t="s">
-        <v>194</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -6138,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>25</v>
-      </c>
-      <c r="G169" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -6164,13 +5723,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>193</v>
-      </c>
-      <c r="G170" t="s">
-        <v>194</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -6192,11 +5749,9 @@
       <c r="F171" t="s">
         <v>11</v>
       </c>
-      <c r="G171" t="s">
-        <v>12</v>
-      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -6216,13 +5771,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>213</v>
-      </c>
-      <c r="G172" t="s">
-        <v>214</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -6242,13 +5795,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>25</v>
-      </c>
-      <c r="G173" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -6268,13 +5819,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>213</v>
-      </c>
-      <c r="G174" t="s">
-        <v>214</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6294,13 +5843,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>25</v>
-      </c>
-      <c r="G175" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -6320,13 +5867,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>213</v>
-      </c>
-      <c r="G176" t="s">
-        <v>214</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -6346,13 +5891,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>25</v>
-      </c>
-      <c r="G177" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -6372,13 +5915,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>213</v>
-      </c>
-      <c r="G178" t="s">
-        <v>214</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>221</v>
+        <v>201</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -6398,13 +5939,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>25</v>
-      </c>
-      <c r="G179" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -6424,13 +5963,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>213</v>
-      </c>
-      <c r="G180" t="s">
-        <v>214</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -6450,13 +5987,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>25</v>
-      </c>
-      <c r="G181" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -6476,13 +6011,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>213</v>
-      </c>
-      <c r="G182" t="s">
-        <v>214</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -6502,13 +6035,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>25</v>
-      </c>
-      <c r="G183" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -6528,13 +6059,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>213</v>
-      </c>
-      <c r="G184" t="s">
-        <v>214</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -6554,13 +6083,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>25</v>
-      </c>
-      <c r="G185" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6580,13 +6107,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>213</v>
-      </c>
-      <c r="G186" t="s">
-        <v>214</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6608,11 +6133,9 @@
       <c r="F187" t="s">
         <v>11</v>
       </c>
-      <c r="G187" t="s">
-        <v>12</v>
-      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6632,13 +6155,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>231</v>
-      </c>
-      <c r="G188" t="s">
-        <v>232</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>233</v>
+        <v>212</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6658,13 +6179,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>25</v>
-      </c>
-      <c r="G189" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>234</v>
+        <v>213</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6684,13 +6203,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>231</v>
-      </c>
-      <c r="G190" t="s">
-        <v>232</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>235</v>
+        <v>214</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6710,13 +6227,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>25</v>
-      </c>
-      <c r="G191" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6736,13 +6251,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>231</v>
-      </c>
-      <c r="G192" t="s">
-        <v>232</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>237</v>
+        <v>216</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6762,13 +6275,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>25</v>
-      </c>
-      <c r="G193" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>238</v>
+        <v>217</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6788,13 +6299,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>231</v>
-      </c>
-      <c r="G194" t="s">
-        <v>232</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>239</v>
+        <v>218</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6816,11 +6325,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6840,13 +6347,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>241</v>
-      </c>
-      <c r="G196" t="s">
-        <v>242</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6866,13 +6371,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>25</v>
-      </c>
-      <c r="G197" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6892,13 +6395,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>241</v>
-      </c>
-      <c r="G198" t="s">
-        <v>242</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6918,13 +6419,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>25</v>
-      </c>
-      <c r="G199" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6944,13 +6443,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>49</v>
-      </c>
-      <c r="G200" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6970,13 +6467,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>25</v>
-      </c>
-      <c r="G201" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6996,13 +6491,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>49</v>
-      </c>
-      <c r="G202" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -7022,13 +6515,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>250</v>
-      </c>
-      <c r="G203" t="s">
-        <v>251</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -7048,13 +6539,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>25</v>
-      </c>
-      <c r="G204" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -7074,13 +6563,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>250</v>
-      </c>
-      <c r="G205" t="s">
-        <v>251</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -7100,13 +6587,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>25</v>
-      </c>
-      <c r="G206" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -7126,13 +6611,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>250</v>
-      </c>
-      <c r="G207" t="s">
-        <v>251</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -7152,13 +6635,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>25</v>
-      </c>
-      <c r="G208" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -7178,13 +6659,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>250</v>
-      </c>
-      <c r="G209" t="s">
-        <v>251</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -7204,13 +6683,11 @@
         <v>10</v>
       </c>
       <c r="F210" t="s">
-        <v>25</v>
-      </c>
-      <c r="G210" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -7230,13 +6707,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>250</v>
-      </c>
-      <c r="G211" t="s">
-        <v>251</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -7256,13 +6731,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>25</v>
-      </c>
-      <c r="G212" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -7282,13 +6755,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>250</v>
-      </c>
-      <c r="G213" t="s">
-        <v>251</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -7308,13 +6779,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>25</v>
-      </c>
-      <c r="G214" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -7334,13 +6803,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>250</v>
-      </c>
-      <c r="G215" t="s">
-        <v>251</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -7360,13 +6827,11 @@
         <v>10</v>
       </c>
       <c r="F216" t="s">
-        <v>25</v>
-      </c>
-      <c r="G216" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -7386,13 +6851,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>250</v>
-      </c>
-      <c r="G217" t="s">
-        <v>251</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -7412,13 +6875,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>25</v>
-      </c>
-      <c r="G218" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -7438,13 +6899,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>250</v>
-      </c>
-      <c r="G219" t="s">
-        <v>251</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -7464,13 +6923,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>25</v>
-      </c>
-      <c r="G220" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -7490,13 +6947,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>250</v>
-      </c>
-      <c r="G221" t="s">
-        <v>251</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -7516,13 +6971,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>25</v>
-      </c>
-      <c r="G222" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -7542,13 +6995,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>49</v>
-      </c>
-      <c r="G223" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7568,13 +7019,11 @@
         <v>10</v>
       </c>
       <c r="F224" t="s">
+        <v>228</v>
+      </c>
+      <c r="G224" t="s"/>
+      <c r="H224" t="s">
         <v>250</v>
-      </c>
-      <c r="G224" t="s">
-        <v>251</v>
-      </c>
-      <c r="H224" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7594,13 +7043,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>49</v>
-      </c>
-      <c r="G225" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7620,13 +7067,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>275</v>
-      </c>
-      <c r="G226" t="s">
-        <v>276</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7646,13 +7091,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>25</v>
-      </c>
-      <c r="G227" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7672,13 +7115,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>275</v>
-      </c>
-      <c r="G228" t="s">
-        <v>276</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7698,13 +7139,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>49</v>
-      </c>
-      <c r="G229" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7724,13 +7163,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>281</v>
-      </c>
-      <c r="G230" t="s">
-        <v>282</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>283</v>
+        <v>258</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7750,13 +7187,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>25</v>
-      </c>
-      <c r="G231" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7776,13 +7211,11 @@
         <v>10</v>
       </c>
       <c r="F232" t="s">
-        <v>281</v>
-      </c>
-      <c r="G232" t="s">
-        <v>282</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -7802,13 +7235,11 @@
         <v>10</v>
       </c>
       <c r="F233" t="s">
-        <v>25</v>
-      </c>
-      <c r="G233" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G233" t="s"/>
       <c r="H233" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -7828,13 +7259,11 @@
         <v>10</v>
       </c>
       <c r="F234" t="s">
-        <v>281</v>
-      </c>
-      <c r="G234" t="s">
-        <v>282</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G234" t="s"/>
       <c r="H234" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -7854,13 +7283,11 @@
         <v>10</v>
       </c>
       <c r="F235" t="s">
-        <v>25</v>
-      </c>
-      <c r="G235" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G235" t="s"/>
       <c r="H235" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -7880,13 +7307,11 @@
         <v>10</v>
       </c>
       <c r="F236" t="s">
-        <v>281</v>
-      </c>
-      <c r="G236" t="s">
-        <v>282</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G236" t="s"/>
       <c r="H236" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -7906,13 +7331,11 @@
         <v>10</v>
       </c>
       <c r="F237" t="s">
-        <v>25</v>
-      </c>
-      <c r="G237" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G237" t="s"/>
       <c r="H237" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -7932,13 +7355,11 @@
         <v>10</v>
       </c>
       <c r="F238" t="s">
-        <v>281</v>
-      </c>
-      <c r="G238" t="s">
-        <v>282</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G238" t="s"/>
       <c r="H238" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -7958,13 +7379,11 @@
         <v>10</v>
       </c>
       <c r="F239" t="s">
-        <v>25</v>
-      </c>
-      <c r="G239" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G239" t="s"/>
       <c r="H239" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -7984,13 +7403,11 @@
         <v>10</v>
       </c>
       <c r="F240" t="s">
-        <v>281</v>
-      </c>
-      <c r="G240" t="s">
-        <v>282</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="G240" t="s"/>
       <c r="H240" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8010,13 +7427,11 @@
         <v>10</v>
       </c>
       <c r="F241" t="s">
-        <v>49</v>
-      </c>
-      <c r="G241" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G241" t="s"/>
       <c r="H241" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -8036,13 +7451,11 @@
         <v>10</v>
       </c>
       <c r="F242" t="s">
-        <v>295</v>
-      </c>
-      <c r="G242" t="s">
-        <v>296</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G242" t="s"/>
       <c r="H242" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -8062,13 +7475,11 @@
         <v>10</v>
       </c>
       <c r="F243" t="s">
-        <v>25</v>
-      </c>
-      <c r="G243" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G243" t="s"/>
       <c r="H243" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -8088,13 +7499,11 @@
         <v>10</v>
       </c>
       <c r="F244" t="s">
-        <v>295</v>
-      </c>
-      <c r="G244" t="s">
-        <v>296</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G244" t="s"/>
       <c r="H244" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -8114,13 +7523,11 @@
         <v>10</v>
       </c>
       <c r="F245" t="s">
-        <v>49</v>
-      </c>
-      <c r="G245" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G245" t="s"/>
       <c r="H245" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -8140,13 +7547,11 @@
         <v>10</v>
       </c>
       <c r="F246" t="s">
-        <v>295</v>
-      </c>
-      <c r="G246" t="s">
-        <v>296</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G246" t="s"/>
       <c r="H246" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8166,13 +7571,11 @@
         <v>10</v>
       </c>
       <c r="F247" t="s">
-        <v>25</v>
-      </c>
-      <c r="G247" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G247" t="s"/>
       <c r="H247" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8192,13 +7595,11 @@
         <v>10</v>
       </c>
       <c r="F248" t="s">
-        <v>295</v>
-      </c>
-      <c r="G248" t="s">
-        <v>296</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G248" t="s"/>
       <c r="H248" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -8218,13 +7619,11 @@
         <v>10</v>
       </c>
       <c r="F249" t="s">
-        <v>25</v>
-      </c>
-      <c r="G249" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G249" t="s"/>
       <c r="H249" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -8244,13 +7643,11 @@
         <v>10</v>
       </c>
       <c r="F250" t="s">
-        <v>295</v>
-      </c>
-      <c r="G250" t="s">
-        <v>296</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G250" t="s"/>
       <c r="H250" t="s">
-        <v>305</v>
+        <v>279</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8270,13 +7667,11 @@
         <v>10</v>
       </c>
       <c r="F251" t="s">
-        <v>25</v>
-      </c>
-      <c r="G251" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G251" t="s"/>
       <c r="H251" t="s">
-        <v>306</v>
+        <v>280</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -8296,13 +7691,11 @@
         <v>10</v>
       </c>
       <c r="F252" t="s">
-        <v>295</v>
-      </c>
-      <c r="G252" t="s">
-        <v>296</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G252" t="s"/>
       <c r="H252" t="s">
-        <v>307</v>
+        <v>281</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8322,13 +7715,11 @@
         <v>10</v>
       </c>
       <c r="F253" t="s">
-        <v>25</v>
-      </c>
-      <c r="G253" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G253" t="s"/>
       <c r="H253" t="s">
-        <v>308</v>
+        <v>282</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -8348,13 +7739,11 @@
         <v>10</v>
       </c>
       <c r="F254" t="s">
-        <v>295</v>
-      </c>
-      <c r="G254" t="s">
-        <v>296</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G254" t="s"/>
       <c r="H254" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8374,13 +7763,11 @@
         <v>10</v>
       </c>
       <c r="F255" t="s">
-        <v>25</v>
-      </c>
-      <c r="G255" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G255" t="s"/>
       <c r="H255" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -8400,13 +7787,11 @@
         <v>10</v>
       </c>
       <c r="F256" t="s">
-        <v>295</v>
-      </c>
-      <c r="G256" t="s">
-        <v>296</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G256" t="s"/>
       <c r="H256" t="s">
-        <v>311</v>
+        <v>285</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -8426,13 +7811,11 @@
         <v>10</v>
       </c>
       <c r="F257" t="s">
-        <v>25</v>
-      </c>
-      <c r="G257" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G257" t="s"/>
       <c r="H257" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -8452,13 +7835,11 @@
         <v>10</v>
       </c>
       <c r="F258" t="s">
-        <v>295</v>
-      </c>
-      <c r="G258" t="s">
-        <v>296</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G258" t="s"/>
       <c r="H258" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -8478,13 +7859,11 @@
         <v>10</v>
       </c>
       <c r="F259" t="s">
-        <v>25</v>
-      </c>
-      <c r="G259" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G259" t="s"/>
       <c r="H259" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -8504,13 +7883,11 @@
         <v>10</v>
       </c>
       <c r="F260" t="s">
-        <v>295</v>
-      </c>
-      <c r="G260" t="s">
-        <v>296</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G260" t="s"/>
       <c r="H260" t="s">
-        <v>315</v>
+        <v>289</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -8530,13 +7907,11 @@
         <v>10</v>
       </c>
       <c r="F261" t="s">
-        <v>49</v>
-      </c>
-      <c r="G261" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G261" t="s"/>
       <c r="H261" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -8556,13 +7931,11 @@
         <v>10</v>
       </c>
       <c r="F262" t="s">
-        <v>295</v>
-      </c>
-      <c r="G262" t="s">
-        <v>296</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="G262" t="s"/>
       <c r="H262" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -8582,13 +7955,11 @@
         <v>10</v>
       </c>
       <c r="F263" t="s">
-        <v>49</v>
-      </c>
-      <c r="G263" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G263" t="s"/>
       <c r="H263" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -8608,13 +7979,11 @@
         <v>10</v>
       </c>
       <c r="F264" t="s">
-        <v>318</v>
-      </c>
-      <c r="G264" t="s">
-        <v>319</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G264" t="s"/>
       <c r="H264" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -8634,13 +8003,11 @@
         <v>10</v>
       </c>
       <c r="F265" t="s">
-        <v>49</v>
-      </c>
-      <c r="G265" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G265" t="s"/>
       <c r="H265" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -8660,13 +8027,11 @@
         <v>10</v>
       </c>
       <c r="F266" t="s">
-        <v>318</v>
-      </c>
-      <c r="G266" t="s">
-        <v>319</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G266" t="s"/>
       <c r="H266" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -8686,13 +8051,11 @@
         <v>10</v>
       </c>
       <c r="F267" t="s">
-        <v>25</v>
-      </c>
-      <c r="G267" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G267" t="s"/>
       <c r="H267" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -8712,13 +8075,11 @@
         <v>10</v>
       </c>
       <c r="F268" t="s">
-        <v>318</v>
-      </c>
-      <c r="G268" t="s">
-        <v>319</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G268" t="s"/>
       <c r="H268" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -8738,13 +8099,11 @@
         <v>10</v>
       </c>
       <c r="F269" t="s">
-        <v>25</v>
-      </c>
-      <c r="G269" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G269" t="s"/>
       <c r="H269" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -8764,13 +8123,11 @@
         <v>10</v>
       </c>
       <c r="F270" t="s">
-        <v>318</v>
-      </c>
-      <c r="G270" t="s">
-        <v>319</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G270" t="s"/>
       <c r="H270" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -8790,13 +8147,11 @@
         <v>10</v>
       </c>
       <c r="F271" t="s">
-        <v>25</v>
-      </c>
-      <c r="G271" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G271" t="s"/>
       <c r="H271" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -8816,13 +8171,11 @@
         <v>10</v>
       </c>
       <c r="F272" t="s">
-        <v>318</v>
-      </c>
-      <c r="G272" t="s">
-        <v>319</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G272" t="s"/>
       <c r="H272" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -8842,13 +8195,11 @@
         <v>10</v>
       </c>
       <c r="F273" t="s">
-        <v>25</v>
-      </c>
-      <c r="G273" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G273" t="s"/>
       <c r="H273" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -8868,13 +8219,11 @@
         <v>10</v>
       </c>
       <c r="F274" t="s">
-        <v>318</v>
-      </c>
-      <c r="G274" t="s">
-        <v>319</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G274" t="s"/>
       <c r="H274" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -8894,13 +8243,11 @@
         <v>10</v>
       </c>
       <c r="F275" t="s">
-        <v>25</v>
-      </c>
-      <c r="G275" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G275" t="s"/>
       <c r="H275" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8920,13 +8267,11 @@
         <v>10</v>
       </c>
       <c r="F276" t="s">
-        <v>318</v>
-      </c>
-      <c r="G276" t="s">
-        <v>319</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G276" t="s"/>
       <c r="H276" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8946,13 +8291,11 @@
         <v>10</v>
       </c>
       <c r="F277" t="s">
-        <v>25</v>
-      </c>
-      <c r="G277" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G277" t="s"/>
       <c r="H277" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -8972,13 +8315,11 @@
         <v>10</v>
       </c>
       <c r="F278" t="s">
-        <v>318</v>
-      </c>
-      <c r="G278" t="s">
-        <v>319</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G278" t="s"/>
       <c r="H278" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -8998,13 +8339,11 @@
         <v>10</v>
       </c>
       <c r="F279" t="s">
-        <v>25</v>
-      </c>
-      <c r="G279" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G279" t="s"/>
       <c r="H279" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -9024,13 +8363,11 @@
         <v>10</v>
       </c>
       <c r="F280" t="s">
-        <v>318</v>
-      </c>
-      <c r="G280" t="s">
-        <v>319</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="G280" t="s"/>
       <c r="H280" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -9050,13 +8387,11 @@
         <v>10</v>
       </c>
       <c r="F281" t="s">
-        <v>49</v>
-      </c>
-      <c r="G281" t="s">
-        <v>50</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="G281" t="s"/>
       <c r="H281" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -9078,11 +8413,9 @@
       <c r="F282" t="s">
         <v>11</v>
       </c>
-      <c r="G282" t="s">
-        <v>12</v>
-      </c>
+      <c r="G282" t="s"/>
       <c r="H282" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -9102,13 +8435,11 @@
         <v>10</v>
       </c>
       <c r="F283" t="s">
-        <v>338</v>
-      </c>
-      <c r="G283" t="s">
-        <v>339</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G283" t="s"/>
       <c r="H283" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -9130,11 +8461,9 @@
       <c r="F284" t="s">
         <v>11</v>
       </c>
-      <c r="G284" t="s">
-        <v>12</v>
-      </c>
+      <c r="G284" t="s"/>
       <c r="H284" t="s">
-        <v>341</v>
+        <v>313</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -9154,13 +8483,11 @@
         <v>10</v>
       </c>
       <c r="F285" t="s">
-        <v>338</v>
-      </c>
-      <c r="G285" t="s">
-        <v>339</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G285" t="s"/>
       <c r="H285" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -9180,13 +8507,11 @@
         <v>10</v>
       </c>
       <c r="F286" t="s">
-        <v>25</v>
-      </c>
-      <c r="G286" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G286" t="s"/>
       <c r="H286" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -9206,13 +8531,11 @@
         <v>10</v>
       </c>
       <c r="F287" t="s">
-        <v>338</v>
-      </c>
-      <c r="G287" t="s">
-        <v>339</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G287" t="s"/>
       <c r="H287" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -9232,13 +8555,11 @@
         <v>10</v>
       </c>
       <c r="F288" t="s">
-        <v>25</v>
-      </c>
-      <c r="G288" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G288" t="s"/>
       <c r="H288" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -9258,13 +8579,11 @@
         <v>10</v>
       </c>
       <c r="F289" t="s">
-        <v>338</v>
-      </c>
-      <c r="G289" t="s">
-        <v>339</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G289" t="s"/>
       <c r="H289" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9284,13 +8603,11 @@
         <v>10</v>
       </c>
       <c r="F290" t="s">
-        <v>25</v>
-      </c>
-      <c r="G290" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G290" t="s"/>
       <c r="H290" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -9310,13 +8627,11 @@
         <v>10</v>
       </c>
       <c r="F291" t="s">
-        <v>338</v>
-      </c>
-      <c r="G291" t="s">
-        <v>339</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G291" t="s"/>
       <c r="H291" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -9336,13 +8651,11 @@
         <v>10</v>
       </c>
       <c r="F292" t="s">
-        <v>25</v>
-      </c>
-      <c r="G292" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G292" t="s"/>
       <c r="H292" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -9362,13 +8675,11 @@
         <v>10</v>
       </c>
       <c r="F293" t="s">
-        <v>338</v>
-      </c>
-      <c r="G293" t="s">
-        <v>339</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G293" t="s"/>
       <c r="H293" t="s">
-        <v>350</v>
+        <v>322</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -9388,13 +8699,11 @@
         <v>10</v>
       </c>
       <c r="F294" t="s">
-        <v>25</v>
-      </c>
-      <c r="G294" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G294" t="s"/>
       <c r="H294" t="s">
-        <v>351</v>
+        <v>323</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -9414,13 +8723,11 @@
         <v>10</v>
       </c>
       <c r="F295" t="s">
-        <v>338</v>
-      </c>
-      <c r="G295" t="s">
-        <v>339</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="G295" t="s"/>
       <c r="H295" t="s">
-        <v>352</v>
+        <v>324</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -9442,11 +8749,9 @@
       <c r="F296" t="s">
         <v>11</v>
       </c>
-      <c r="G296" t="s">
-        <v>12</v>
-      </c>
+      <c r="G296" t="s"/>
       <c r="H296" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -9466,13 +8771,11 @@
         <v>10</v>
       </c>
       <c r="F297" t="s">
-        <v>14</v>
-      </c>
-      <c r="G297" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G297" t="s"/>
       <c r="H297" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -9492,13 +8795,11 @@
         <v>10</v>
       </c>
       <c r="F298" t="s">
-        <v>25</v>
-      </c>
-      <c r="G298" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G298" t="s"/>
       <c r="H298" t="s">
-        <v>355</v>
+        <v>327</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -9518,13 +8819,11 @@
         <v>10</v>
       </c>
       <c r="F299" t="s">
-        <v>14</v>
-      </c>
-      <c r="G299" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G299" t="s"/>
       <c r="H299" t="s">
-        <v>356</v>
+        <v>328</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -9544,13 +8843,11 @@
         <v>10</v>
       </c>
       <c r="F300" t="s">
-        <v>25</v>
-      </c>
-      <c r="G300" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G300" t="s"/>
       <c r="H300" t="s">
-        <v>357</v>
+        <v>329</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -9570,13 +8867,11 @@
         <v>10</v>
       </c>
       <c r="F301" t="s">
-        <v>14</v>
-      </c>
-      <c r="G301" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G301" t="s"/>
       <c r="H301" t="s">
-        <v>358</v>
+        <v>330</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -9596,13 +8891,11 @@
         <v>10</v>
       </c>
       <c r="F302" t="s">
-        <v>25</v>
-      </c>
-      <c r="G302" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G302" t="s"/>
       <c r="H302" t="s">
-        <v>359</v>
+        <v>331</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -9622,13 +8915,11 @@
         <v>10</v>
       </c>
       <c r="F303" t="s">
-        <v>14</v>
-      </c>
-      <c r="G303" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G303" t="s"/>
       <c r="H303" t="s">
-        <v>360</v>
+        <v>332</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -9648,13 +8939,11 @@
         <v>10</v>
       </c>
       <c r="F304" t="s">
-        <v>25</v>
-      </c>
-      <c r="G304" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G304" t="s"/>
       <c r="H304" t="s">
-        <v>361</v>
+        <v>333</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -9674,13 +8963,11 @@
         <v>10</v>
       </c>
       <c r="F305" t="s">
-        <v>14</v>
-      </c>
-      <c r="G305" t="s">
-        <v>15</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G305" t="s"/>
       <c r="H305" t="s">
-        <v>362</v>
+        <v>334</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -9700,13 +8987,11 @@
         <v>10</v>
       </c>
       <c r="F306" t="s">
-        <v>25</v>
-      </c>
-      <c r="G306" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G306" t="s"/>
       <c r="H306" t="s">
-        <v>363</v>
+        <v>335</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -9728,11 +9013,9 @@
       <c r="F307" t="s">
         <v>11</v>
       </c>
-      <c r="G307" t="s">
-        <v>12</v>
-      </c>
+      <c r="G307" t="s"/>
       <c r="H307" t="s">
-        <v>364</v>
+        <v>336</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -9752,13 +9035,11 @@
         <v>10</v>
       </c>
       <c r="F308" t="s">
-        <v>365</v>
-      </c>
-      <c r="G308" t="s">
-        <v>366</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="G308" t="s"/>
       <c r="H308" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -9780,11 +9061,9 @@
       <c r="F309" t="s">
         <v>11</v>
       </c>
-      <c r="G309" t="s">
-        <v>12</v>
-      </c>
+      <c r="G309" t="s"/>
       <c r="H309" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -9804,13 +9083,11 @@
         <v>10</v>
       </c>
       <c r="F310" t="s">
-        <v>369</v>
-      </c>
-      <c r="G310" t="s">
-        <v>370</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G310" t="s"/>
       <c r="H310" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9830,13 +9107,11 @@
         <v>10</v>
       </c>
       <c r="F311" t="s">
-        <v>25</v>
-      </c>
-      <c r="G311" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G311" t="s"/>
       <c r="H311" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -9856,13 +9131,11 @@
         <v>10</v>
       </c>
       <c r="F312" t="s">
-        <v>369</v>
-      </c>
-      <c r="G312" t="s">
-        <v>370</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G312" t="s"/>
       <c r="H312" t="s">
-        <v>373</v>
+        <v>343</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -9882,13 +9155,11 @@
         <v>10</v>
       </c>
       <c r="F313" t="s">
-        <v>25</v>
-      </c>
-      <c r="G313" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G313" t="s"/>
       <c r="H313" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9908,13 +9179,11 @@
         <v>10</v>
       </c>
       <c r="F314" t="s">
-        <v>369</v>
-      </c>
-      <c r="G314" t="s">
-        <v>370</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G314" t="s"/>
       <c r="H314" t="s">
-        <v>375</v>
+        <v>345</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -9934,13 +9203,11 @@
         <v>10</v>
       </c>
       <c r="F315" t="s">
-        <v>25</v>
-      </c>
-      <c r="G315" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G315" t="s"/>
       <c r="H315" t="s">
-        <v>376</v>
+        <v>346</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -9960,13 +9227,11 @@
         <v>10</v>
       </c>
       <c r="F316" t="s">
-        <v>369</v>
-      </c>
-      <c r="G316" t="s">
-        <v>370</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="G316" t="s"/>
       <c r="H316" t="s">
-        <v>377</v>
+        <v>347</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -9988,11 +9253,9 @@
       <c r="F317" t="s">
         <v>11</v>
       </c>
-      <c r="G317" t="s">
-        <v>12</v>
-      </c>
+      <c r="G317" t="s"/>
       <c r="H317" t="s">
-        <v>378</v>
+        <v>348</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -10012,13 +9275,11 @@
         <v>10</v>
       </c>
       <c r="F318" t="s">
-        <v>379</v>
-      </c>
-      <c r="G318" t="s">
-        <v>380</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="G318" t="s"/>
       <c r="H318" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -10038,13 +9299,11 @@
         <v>10</v>
       </c>
       <c r="F319" t="s">
-        <v>25</v>
-      </c>
-      <c r="G319" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G319" t="s"/>
       <c r="H319" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10064,13 +9323,11 @@
         <v>10</v>
       </c>
       <c r="F320" t="s">
-        <v>379</v>
-      </c>
-      <c r="G320" t="s">
-        <v>380</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="G320" t="s"/>
       <c r="H320" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -10092,11 +9349,9 @@
       <c r="F321" t="s">
         <v>11</v>
       </c>
-      <c r="G321" t="s">
-        <v>12</v>
-      </c>
+      <c r="G321" t="s"/>
       <c r="H321" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -10116,13 +9371,11 @@
         <v>10</v>
       </c>
       <c r="F322" t="s">
-        <v>385</v>
-      </c>
-      <c r="G322" t="s">
-        <v>386</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G322" t="s"/>
       <c r="H322" t="s">
-        <v>387</v>
+        <v>355</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10144,11 +9397,9 @@
       <c r="F323" t="s">
         <v>11</v>
       </c>
-      <c r="G323" t="s">
-        <v>12</v>
-      </c>
+      <c r="G323" t="s"/>
       <c r="H323" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -10168,13 +9419,11 @@
         <v>10</v>
       </c>
       <c r="F324" t="s">
-        <v>379</v>
-      </c>
-      <c r="G324" t="s">
-        <v>380</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="G324" t="s"/>
       <c r="H324" t="s">
-        <v>389</v>
+        <v>357</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -10194,13 +9443,11 @@
         <v>10</v>
       </c>
       <c r="F325" t="s">
-        <v>25</v>
-      </c>
-      <c r="G325" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G325" t="s"/>
       <c r="H325" t="s">
-        <v>390</v>
+        <v>358</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -10220,13 +9467,11 @@
         <v>10</v>
       </c>
       <c r="F326" t="s">
-        <v>379</v>
-      </c>
-      <c r="G326" t="s">
-        <v>380</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="G326" t="s"/>
       <c r="H326" t="s">
-        <v>391</v>
+        <v>359</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -10246,13 +9491,11 @@
         <v>10</v>
       </c>
       <c r="F327" t="s">
-        <v>25</v>
-      </c>
-      <c r="G327" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G327" t="s"/>
       <c r="H327" t="s">
-        <v>392</v>
+        <v>360</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -10272,13 +9515,11 @@
         <v>10</v>
       </c>
       <c r="F328" t="s">
-        <v>379</v>
-      </c>
-      <c r="G328" t="s">
-        <v>380</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="G328" t="s"/>
       <c r="H328" t="s">
-        <v>393</v>
+        <v>361</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -10298,13 +9539,11 @@
         <v>10</v>
       </c>
       <c r="F329" t="s">
-        <v>25</v>
-      </c>
-      <c r="G329" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G329" t="s"/>
       <c r="H329" t="s">
-        <v>394</v>
+        <v>362</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -10324,13 +9563,11 @@
         <v>10</v>
       </c>
       <c r="F330" t="s">
-        <v>379</v>
-      </c>
-      <c r="G330" t="s">
-        <v>380</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="G330" t="s"/>
       <c r="H330" t="s">
-        <v>395</v>
+        <v>363</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -10350,13 +9587,11 @@
         <v>10</v>
       </c>
       <c r="F331" t="s">
-        <v>25</v>
-      </c>
-      <c r="G331" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G331" t="s"/>
       <c r="H331" t="s">
-        <v>396</v>
+        <v>364</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10376,13 +9611,11 @@
         <v>10</v>
       </c>
       <c r="F332" t="s">
-        <v>379</v>
-      </c>
-      <c r="G332" t="s">
-        <v>380</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="G332" t="s"/>
       <c r="H332" t="s">
-        <v>397</v>
+        <v>365</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -10402,13 +9635,11 @@
         <v>10</v>
       </c>
       <c r="F333" t="s">
-        <v>25</v>
-      </c>
-      <c r="G333" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G333" t="s"/>
       <c r="H333" t="s">
-        <v>398</v>
+        <v>366</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -10428,13 +9659,11 @@
         <v>10</v>
       </c>
       <c r="F334" t="s">
-        <v>379</v>
-      </c>
-      <c r="G334" t="s">
-        <v>380</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="G334" t="s"/>
       <c r="H334" t="s">
-        <v>399</v>
+        <v>367</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -10456,11 +9685,9 @@
       <c r="F335" t="s">
         <v>11</v>
       </c>
-      <c r="G335" t="s">
-        <v>12</v>
-      </c>
+      <c r="G335" t="s"/>
       <c r="H335" t="s">
-        <v>400</v>
+        <v>368</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -10480,13 +9707,11 @@
         <v>10</v>
       </c>
       <c r="F336" t="s">
-        <v>401</v>
-      </c>
-      <c r="G336" t="s">
-        <v>402</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="G336" t="s"/>
       <c r="H336" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -10506,13 +9731,11 @@
         <v>10</v>
       </c>
       <c r="F337" t="s">
-        <v>25</v>
-      </c>
-      <c r="G337" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G337" t="s"/>
       <c r="H337" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -10532,13 +9755,11 @@
         <v>10</v>
       </c>
       <c r="F338" t="s">
-        <v>401</v>
-      </c>
-      <c r="G338" t="s">
-        <v>402</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="G338" t="s"/>
       <c r="H338" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -10558,13 +9779,11 @@
         <v>10</v>
       </c>
       <c r="F339" t="s">
-        <v>25</v>
-      </c>
-      <c r="G339" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G339" t="s"/>
       <c r="H339" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -10584,13 +9803,11 @@
         <v>10</v>
       </c>
       <c r="F340" t="s">
-        <v>401</v>
-      </c>
-      <c r="G340" t="s">
-        <v>402</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="G340" t="s"/>
       <c r="H340" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -10610,13 +9827,11 @@
         <v>10</v>
       </c>
       <c r="F341" t="s">
-        <v>25</v>
-      </c>
-      <c r="G341" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G341" t="s"/>
       <c r="H341" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -10636,13 +9851,11 @@
         <v>10</v>
       </c>
       <c r="F342" t="s">
-        <v>401</v>
-      </c>
-      <c r="G342" t="s">
-        <v>402</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="G342" t="s"/>
       <c r="H342" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -10662,13 +9875,11 @@
         <v>10</v>
       </c>
       <c r="F343" t="s">
-        <v>25</v>
-      </c>
-      <c r="G343" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G343" t="s"/>
       <c r="H343" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -10688,13 +9899,11 @@
         <v>10</v>
       </c>
       <c r="F344" t="s">
-        <v>401</v>
-      </c>
-      <c r="G344" t="s">
-        <v>402</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="G344" t="s"/>
       <c r="H344" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -10716,11 +9925,9 @@
       <c r="F345" t="s">
         <v>11</v>
       </c>
-      <c r="G345" t="s">
-        <v>12</v>
-      </c>
+      <c r="G345" t="s"/>
       <c r="H345" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -10740,13 +9947,11 @@
         <v>10</v>
       </c>
       <c r="F346" t="s">
-        <v>413</v>
-      </c>
-      <c r="G346" t="s">
-        <v>414</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="G346" t="s"/>
       <c r="H346" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -10766,13 +9971,11 @@
         <v>10</v>
       </c>
       <c r="F347" t="s">
-        <v>25</v>
-      </c>
-      <c r="G347" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G347" t="s"/>
       <c r="H347" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -10792,13 +9995,11 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>413</v>
-      </c>
-      <c r="G348" t="s">
-        <v>414</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="G348" t="s"/>
       <c r="H348" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -10818,13 +10019,11 @@
         <v>10</v>
       </c>
       <c r="F349" t="s">
-        <v>25</v>
-      </c>
-      <c r="G349" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G349" t="s"/>
       <c r="H349" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -10844,13 +10043,11 @@
         <v>10</v>
       </c>
       <c r="F350" t="s">
-        <v>413</v>
-      </c>
-      <c r="G350" t="s">
-        <v>414</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="G350" t="s"/>
       <c r="H350" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -10870,13 +10067,11 @@
         <v>10</v>
       </c>
       <c r="F351" t="s">
-        <v>25</v>
-      </c>
-      <c r="G351" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G351" t="s"/>
       <c r="H351" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -10896,13 +10091,11 @@
         <v>10</v>
       </c>
       <c r="F352" t="s">
-        <v>413</v>
-      </c>
-      <c r="G352" t="s">
-        <v>414</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="G352" t="s"/>
       <c r="H352" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -10922,13 +10115,11 @@
         <v>10</v>
       </c>
       <c r="F353" t="s">
-        <v>25</v>
-      </c>
-      <c r="G353" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G353" t="s"/>
       <c r="H353" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -10948,13 +10139,11 @@
         <v>10</v>
       </c>
       <c r="F354" t="s">
-        <v>413</v>
-      </c>
-      <c r="G354" t="s">
-        <v>414</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="G354" t="s"/>
       <c r="H354" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10974,13 +10163,11 @@
         <v>10</v>
       </c>
       <c r="F355" t="s">
-        <v>385</v>
-      </c>
-      <c r="G355" t="s">
-        <v>386</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G355" t="s"/>
       <c r="H355" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -11000,13 +10187,11 @@
         <v>10</v>
       </c>
       <c r="F356" t="s">
-        <v>413</v>
-      </c>
-      <c r="G356" t="s">
-        <v>414</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="G356" t="s"/>
       <c r="H356" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -11026,13 +10211,11 @@
         <v>10</v>
       </c>
       <c r="F357" t="s">
-        <v>385</v>
-      </c>
-      <c r="G357" t="s">
-        <v>386</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G357" t="s"/>
       <c r="H357" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -11052,13 +10235,11 @@
         <v>10</v>
       </c>
       <c r="F358" t="s">
-        <v>413</v>
-      </c>
-      <c r="G358" t="s">
-        <v>414</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="G358" t="s"/>
       <c r="H358" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -11078,13 +10259,11 @@
         <v>10</v>
       </c>
       <c r="F359" t="s">
-        <v>385</v>
-      </c>
-      <c r="G359" t="s">
-        <v>386</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G359" t="s"/>
       <c r="H359" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -11104,13 +10283,11 @@
         <v>10</v>
       </c>
       <c r="F360" t="s">
-        <v>25</v>
-      </c>
-      <c r="G360" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G360" t="s"/>
       <c r="H360" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -11130,13 +10307,11 @@
         <v>10</v>
       </c>
       <c r="F361" t="s">
-        <v>385</v>
-      </c>
-      <c r="G361" t="s">
-        <v>386</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G361" t="s"/>
       <c r="H361" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -11156,13 +10331,11 @@
         <v>10</v>
       </c>
       <c r="F362" t="s">
-        <v>25</v>
-      </c>
-      <c r="G362" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G362" t="s"/>
       <c r="H362" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -11182,13 +10355,11 @@
         <v>10</v>
       </c>
       <c r="F363" t="s">
-        <v>385</v>
-      </c>
-      <c r="G363" t="s">
-        <v>386</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G363" t="s"/>
       <c r="H363" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -11208,13 +10379,11 @@
         <v>10</v>
       </c>
       <c r="F364" t="s">
-        <v>25</v>
-      </c>
-      <c r="G364" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G364" t="s"/>
       <c r="H364" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -11234,13 +10403,11 @@
         <v>10</v>
       </c>
       <c r="F365" t="s">
-        <v>385</v>
-      </c>
-      <c r="G365" t="s">
-        <v>386</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G365" t="s"/>
       <c r="H365" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -11260,13 +10427,11 @@
         <v>10</v>
       </c>
       <c r="F366" t="s">
-        <v>25</v>
-      </c>
-      <c r="G366" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G366" t="s"/>
       <c r="H366" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -11286,13 +10451,11 @@
         <v>10</v>
       </c>
       <c r="F367" t="s">
-        <v>385</v>
-      </c>
-      <c r="G367" t="s">
-        <v>386</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G367" t="s"/>
       <c r="H367" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -11312,13 +10475,11 @@
         <v>10</v>
       </c>
       <c r="F368" t="s">
-        <v>25</v>
-      </c>
-      <c r="G368" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G368" t="s"/>
       <c r="H368" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -11338,13 +10499,11 @@
         <v>10</v>
       </c>
       <c r="F369" t="s">
-        <v>385</v>
-      </c>
-      <c r="G369" t="s">
-        <v>386</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G369" t="s"/>
       <c r="H369" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -11364,13 +10523,11 @@
         <v>10</v>
       </c>
       <c r="F370" t="s">
-        <v>25</v>
-      </c>
-      <c r="G370" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G370" t="s"/>
       <c r="H370" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -11390,13 +10547,11 @@
         <v>10</v>
       </c>
       <c r="F371" t="s">
-        <v>385</v>
-      </c>
-      <c r="G371" t="s">
-        <v>386</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G371" t="s"/>
       <c r="H371" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -11416,13 +10571,11 @@
         <v>10</v>
       </c>
       <c r="F372" t="s">
-        <v>25</v>
-      </c>
-      <c r="G372" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G372" t="s"/>
       <c r="H372" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -11442,13 +10595,11 @@
         <v>10</v>
       </c>
       <c r="F373" t="s">
-        <v>385</v>
-      </c>
-      <c r="G373" t="s">
-        <v>386</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G373" t="s"/>
       <c r="H373" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -11468,13 +10619,11 @@
         <v>10</v>
       </c>
       <c r="F374" t="s">
-        <v>25</v>
-      </c>
-      <c r="G374" t="s">
-        <v>32</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G374" t="s"/>
       <c r="H374" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -11494,13 +10643,11 @@
         <v>10</v>
       </c>
       <c r="F375" t="s">
-        <v>385</v>
-      </c>
-      <c r="G375" t="s">
-        <v>386</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="G375" t="s"/>
       <c r="H375" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -11522,11 +10669,9 @@
       <c r="F376" t="s">
         <v>11</v>
       </c>
-      <c r="G376" t="s">
-        <v>12</v>
-      </c>
+      <c r="G376" t="s"/>
       <c r="H376" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -11546,13 +10691,11 @@
         <v>10</v>
       </c>
       <c r="F377" t="s">
-        <v>446</v>
-      </c>
-      <c r="G377" t="s">
-        <v>447</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="G377" t="s"/>
       <c r="H377" t="s">
-        <v>448</v>
+        <v>413</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -11572,13 +10715,11 @@
         <v>10</v>
       </c>
       <c r="F378" t="s">
-        <v>25</v>
-      </c>
-      <c r="G378" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G378" t="s"/>
       <c r="H378" t="s">
-        <v>449</v>
+        <v>414</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -11598,13 +10739,11 @@
         <v>10</v>
       </c>
       <c r="F379" t="s">
-        <v>446</v>
-      </c>
-      <c r="G379" t="s">
-        <v>447</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="G379" t="s"/>
       <c r="H379" t="s">
-        <v>450</v>
+        <v>415</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -11624,13 +10763,11 @@
         <v>10</v>
       </c>
       <c r="F380" t="s">
-        <v>25</v>
-      </c>
-      <c r="G380" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G380" t="s"/>
       <c r="H380" t="s">
-        <v>451</v>
+        <v>416</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -11650,13 +10787,11 @@
         <v>10</v>
       </c>
       <c r="F381" t="s">
-        <v>446</v>
-      </c>
-      <c r="G381" t="s">
-        <v>447</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="G381" t="s"/>
       <c r="H381" t="s">
-        <v>452</v>
+        <v>417</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -11676,13 +10811,11 @@
         <v>10</v>
       </c>
       <c r="F382" t="s">
-        <v>25</v>
-      </c>
-      <c r="G382" t="s">
-        <v>35</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G382" t="s"/>
       <c r="H382" t="s">
-        <v>453</v>
+        <v>418</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11702,13 +10835,11 @@
         <v>10</v>
       </c>
       <c r="F383" t="s">
-        <v>446</v>
-      </c>
-      <c r="G383" t="s">
-        <v>447</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="G383" t="s"/>
       <c r="H383" t="s">
-        <v>454</v>
+        <v>419</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -11728,13 +10859,11 @@
         <v>10</v>
       </c>
       <c r="F384" t="s">
-        <v>25</v>
-      </c>
-      <c r="G384" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G384" t="s"/>
       <c r="H384" t="s">
-        <v>455</v>
+        <v>420</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -11754,13 +10883,11 @@
         <v>10</v>
       </c>
       <c r="F385" t="s">
-        <v>446</v>
-      </c>
-      <c r="G385" t="s">
-        <v>447</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="G385" t="s"/>
       <c r="H385" t="s">
-        <v>456</v>
+        <v>421</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -11780,13 +10907,11 @@
         <v>10</v>
       </c>
       <c r="F386" t="s">
-        <v>25</v>
-      </c>
-      <c r="G386" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G386" t="s"/>
       <c r="H386" t="s">
-        <v>457</v>
+        <v>422</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -11806,13 +10931,11 @@
         <v>10</v>
       </c>
       <c r="F387" t="s">
-        <v>446</v>
-      </c>
-      <c r="G387" t="s">
-        <v>447</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="G387" t="s"/>
       <c r="H387" t="s">
-        <v>458</v>
+        <v>423</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -11832,13 +10955,11 @@
         <v>10</v>
       </c>
       <c r="F388" t="s">
-        <v>25</v>
-      </c>
-      <c r="G388" t="s">
-        <v>26</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G388" t="s"/>
       <c r="H388" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -11858,13 +10979,11 @@
         <v>10</v>
       </c>
       <c r="F389" t="s">
-        <v>446</v>
-      </c>
-      <c r="G389" t="s">
-        <v>447</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="G389" t="s"/>
       <c r="H389" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -11886,11 +11005,9 @@
       <c r="F390" t="s">
         <v>11</v>
       </c>
-      <c r="G390" t="s">
-        <v>12</v>
-      </c>
+      <c r="G390" t="s"/>
       <c r="H390" t="s">
-        <v>461</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
